--- a/subsetting_results/subsetting-skalpel-snails-Native-60perc_retrieved_100tpt_llm_selected_gptoss120b.xlsx
+++ b/subsetting_results/subsetting-skalpel-snails-Native-60perc_retrieved_100tpt_llm_selected_gptoss120b.xlsx
@@ -845,7 +845,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataSnakeDataCollection.LocationID'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleMeasurements.LocationID'}</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.Trap_#', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.Trap_#', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties', 'tblFieldDataAmphibianCallCounts'}</t>
+          <t>{'tblFieldDataAmphibianCallCounts', 'tblFieldDataWaterProperties'}</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataWaterProperties.TempC'}</t>
+          <t>{'tblFieldDataWaterProperties.TempC', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.LocationID'}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.Conductivity', 'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.TempC'}</t>
+          <t>{'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Conductivity'}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.RecordID', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataWaterProperties.RecordID'}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tblFieldDataTurtleTrapSurveys'}</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleTrapSurveys.Sex'}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1522,35 +1522,35 @@
         <v>4494</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tblFieldDataSnakeDataCollection'}</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1560,12 +1560,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tblFieldDataSnakeDataCollection.SVL'}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.SVL'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>{'tluSpecies.Common_Name', 'tluSpecies.Species_Code'}</t>
+          <t>{'tluSpecies.Species_Code', 'tluSpecies.Common_Name'}</t>
         </is>
       </c>
       <c r="U16" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.RecordID', 'Observer_LU.ObsInits', 'Observer_LU.Agency/Title'}</t>
+          <t>{'Observer_LU.Agency/Title', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.RecordID'}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'tblFieldDataTurtleMeasurements.EventID', 'tlinkObservers.ObsInits'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.EventID', 'tlinkObservers.EventID', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tblEvents', 'tlinkObservers'}</t>
+          <t>{'tblEvents', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1885,12 +1885,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.ObsInits', 'tblEvents.Year', 'Observer_LU.FirstName', 'tlinkObservers.EventID', 'Observer_LU.LastName', 'tblEvents.EventID', 'Observer_LU.ObsInits'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'Observer_LU.FirstName', 'Observer_LU.LastName', 'tblEvents.Year', 'tblEvents.EventID'}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.ObsInits', 'tblEventDataHerps.EventID'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tblFieldDataTurtleMeasurements', 'tlinkObservers'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.ObsInits', 'Observer_LU.FirstName', 'tlinkObservers.EventID', 'Observer_LU.LastName', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.ObsInits'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.FirstName', 'Observer_LU.LastName'}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.Habitat', 'tblEventDataHerps.EventID', 'tblFieldDataGreenCardObservations.EventID'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tblEventDataHerps.Habitat', 'tblFieldDataGreenCardObservations.EventID'}</t>
         </is>
       </c>
       <c r="U20" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints.UTMY', 'tblLocationsPoints.UTMX', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocationsPoints.LocationID'}</t>
+          <t>{'tblLocationsPoints.UTMY', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID'}</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'tblAbundance_LU.AbundanceID', 'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceText'}</t>
+          <t>{'tblAbundance_LU.AbundanceText', 'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceID'}</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>{'tblLocations.LocationID', 'tblFieldDataCoverBoard.Type', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.Board_#'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.Type', 'tblLocations.LocationID'}</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblEventDataHerps', 'tblLocations'}</t>
+          <t>{'tblEventDataHerps', 'tblFieldDataCoverBoard', 'tblLocations'}</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>{'tblLocations.LocationID', 'tblFieldDataCoverBoard.Type', 'tblEventDataHerps.EventID', 'tblEventDataHerps.AirTemp', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.EventID'}</t>
+          <t>{'tblFieldDataCoverBoard.EventID', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblEventDataHerps.AirTemp', 'tblFieldDataCoverBoard.Type', 'tblEventDataHerps.EventID', 'tblLocations.LocationID'}</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.CaptureMethod'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior'}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Notes'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Notes', 'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior'}</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblLocations', 'tblLocationsPoints'}</t>
+          <t>{'tblLocationsPoints', 'tblFieldDataCoverBoard', 'tblLocations'}</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>{'tblLocations.LocationID', 'tblLocationsPoints.PointID', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMY', 'tblFieldDataCoverBoard.SnakeID', 'tblFieldDataCoverBoard.LocationID', 'tblLocationsPoints.UTMX', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.Board_#'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblLocationsPoints.UTMY', 'tblFieldDataCoverBoard.Board_#', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.PointID', 'tblFieldDataCoverBoard.SnakeID', 'tblLocations.LocationID'}</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2830,12 +2830,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tlinkObservers'}</t>
+          <t>{'tlinkObservers', 'tblFieldDataCoverBoard'}</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tblEvents'}</t>
+          <t>{'tblEvents', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'Observer_LU.ObsInits', 'tblEvents.EventID'}</t>
+          <t>{'tblEvents.EventID', 'Observer_LU.ObsInits'}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tlinkObservers'}</t>
+          <t>{'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.ObsInits', 'tblEventDataHerps.AirTemp'}</t>
+          <t>{'tblEventDataHerps.AirTemp', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'Observer_LU.ObsInits', 'tblEventDataHerps.EventID', 'tlinkObservers.ObsInits'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tlinkObservers.EventID', 'Observer_LU.ObsInits', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>{'tluProject.Description', 'tluProject.Project'}</t>
+          <t>{'tluProject.Project', 'tluProject.Description'}</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>{'tluMicroHabitat.Habitat', 'tluMicroHabitat.Description'}</t>
+          <t>{'tluMicroHabitat.Description', 'tluMicroHabitat.Habitat'}</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleTrapSurveys.Trap_Type'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.Trap_Type', 'tblFieldDataTurtleTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Carapace_Width', 'tblFieldDataTurtleMeasurements.Plastron_Length'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Carapace_Width'}</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.subgenus'}</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -3922,60 +3922,60 @@
         <v>4564</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Nests'}</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Nests.SpCode'}</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Plot', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tbl_Tree_Tags.Plot', 'tbl_Tree_Tags.SpCode'}</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
         </is>
       </c>
       <c r="U45" t="n">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Event_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Event_ID', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tbl_Nests', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Deadwood', 'tbl_Nests'}</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4402,31 +4402,31 @@
         <v>6235</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G50" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J50" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="M50" t="n">
         <v>0.25</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations'}</t>
+          <t>{'tbl_Nests', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4450,12 +4450,12 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord', 'tbl_Locations.Directions', 'tbl_Locations.Plot_ID'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Location_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.Directions', 'tbl_Locations.Plot_ID', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Location_ID', 'tbl_WitnessTrees.Witness_Azimuth', 'tbl_Tree_Tags.Plot', 'tbl_Tree_Tags.Xcoord', 'tbl_WitnessTrees.Location_ID'}</t>
+          <t>{'tbl_Tree_Tags.Xcoord', 'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.Ycoord', 'tbl_WitnessTrees.Witness_Azimuth', 'tbl_Tree_Tags.Plot'}</t>
         </is>
       </c>
       <c r="U50" t="n">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Overstory.DBH', 'tlu_PlantSpecies.genus', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory', 'tlu_Tree_Cond'}</t>
+          <t>{'tlu_Tree_Cond', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.TreeTag', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName', 'tlu_Tree_Cond.TreeCond_Text', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.SpCode', 'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.SpeciesCode', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Seedlings.SpCode'}</t>
+          <t>{'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density'}</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5090,12 +5090,12 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Directions', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Tree_Tag_ID'}</t>
+          <t>{'tbl_Locations.Directions', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Plot', 'tlu_topo_position.TopoPosition', 'tbl_Tree_Tags.Tag'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tlu_topo_position.TopoPosition', 'tbl_Tree_Tags.Plot'}</t>
         </is>
       </c>
       <c r="U58" t="n">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Cover', 'tbl_Nests.Event_ID', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num'}</t>
+          <t>{'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_Azimuth', 'tbl_WitnessTrees.Witness_DBH'}</t>
+          <t>{'tbl_WitnessTrees.Witness_Azimuth', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_stake'}</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tlu_Roads_and_Trails'}</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5485,12 +5485,12 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tlu_Roads_and_Trails.ListedName', 'tlu_Roads_and_Trails.ValidName'}</t>
+          <t>{'tlu_Roads_and_Trails.ListedName', 'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tlu_Roads_and_Trails.ValidName'}</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.Trail'}</t>
+          <t>{'tbl_Locations.Trail', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags', 'tlu_PlaceNames'}</t>
+          <t>{'tlu_PlaceNames', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.ID', 'tlu_PlaceNames.State', 'tbl_Tree_Tags.Location_ID'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tlu_PlaceNames.State', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.Name', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.County'}</t>
+          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.County', 'tlu_PlaceNames.Name'}</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>{'tlu_topo_position.TopoPosition', 'tlu_topo_position.ID', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Topo_Position'}</t>
+          <t>{'tbl_Locations.Topo_Position', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tlu_topo_position.ID', 'tlu_topo_position.TopoPosition'}</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>{'tlu_Live_Dead.Cond_Text', 'tlu_Live_Dead.Cond_Num'}</t>
+          <t>{'tlu_Live_Dead.Cond_Num', 'tlu_Live_Dead.Cond_Text'}</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6030,12 +6030,12 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory', 'tlu_PlaceNames'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlaceNames', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlaceNames.ID', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlaceNames.County', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.PlaceNameID', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.TreeTag', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Locations.PlaceNameID', 'tbl_Overstory.TreeTag'}</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -6125,12 +6125,12 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName'}</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.Overstory_ID', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Seedlings_ID'}</t>
+          <t>{'tbl_Seedlings.Seedlings_ID', 'tbl_Overstory.Overstory_ID', 'tbl_Seedlings.SpCode'}</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Tag'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>{'tlu_Presence.Pres_Num', 'tlu_Presence.Pres_Text', 'tbl_Nests.Presence_First'}</t>
+          <t>{'tlu_Presence.Pres_Num', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Text'}</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
         </is>
       </c>
       <c r="U76" t="n">
@@ -6565,32 +6565,32 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6600,12 +6600,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U77" t="n">
@@ -6645,32 +6645,32 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Length'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U78" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.SiteDescription', 'tbl_Locations.Loc_Notes', 'tbl_Locations.Aspect', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Slope_shape', 'tbl_Locations.Slope'}</t>
+          <t>{'tbl_Locations.Slope', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Aspect', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tbl_Saplings.Condition', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tbl_Saplings.Condition', 'tlu_Tree_Cond.TreeCond_Num', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Ownership', 'VERTEBRATES.Notes', 'VERTEBRATES.Common_Name'}</t>
+          <t>{'VERTEBRATES.Ownership', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Notes'}</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>{'Breeding_Codes', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Breeding_Codes'}</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>{'Breeding_Codes.Breed', 'Breeding_Codes.Definition', 'VERTEBRATES.BREED', 'VERTEBRATES.Common_Name'}</t>
+          <t>{'Breeding_Codes.Breed', 'VERTEBRATES.BREED', 'Breeding_Codes.Definition', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species'}</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>{'Roadkill.HWY_Mile_Marker', 'Roadkill.Species'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.HWY_Mile_Marker'}</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Species'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>{'Roadkill', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Roadkill'}</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7762,35 +7762,35 @@
         <v>2653</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill'}</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -7800,12 +7800,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>{'Roadkill'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.Species', 'Roadkill.number_killed', 'Roadkill.Month', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>{'Roadkill.Month', 'Roadkill.Year', 'Roadkill.number_killed', 'Roadkill.Species'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U92" t="n">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Definition', 'HABITAT_CODES.Code'}</t>
+          <t>{'VERTEBRATES.Habitat', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Habitat', 'HABITAT_CODES.Definition', 'HABITAT_CODES.Code'}</t>
+          <t>{'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -8045,12 +8045,12 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'INVERTEBRATES.Observer', 'VERTEBRATES.Date', 'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'VERTEBRATES.Date', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Common_Name'}</t>
+          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'HABITAT_CODES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'INVERTEBRATES.Observer', 'VERTEBRATES.Observer', 'VERTEBRATES.Date', 'INVERTEBRATES.Date', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'HABITAT_CODES.Code', 'VERTEBRATES.Observer', 'VERTEBRATES.Date', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Observer', 'VERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Observer', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.UTMN', 'VERTEBRATES.UTME', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.Common_Name', 'VERTEBRATES.UTME'}</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.OBS_TYPE'}</t>
+          <t>{'INVERTEBRATES.OBS_TYPE', 'INVERTEBRATES.Location'}</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Survey'}</t>
+          <t>{'VERTEBRATES.Survey', 'VERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME', 'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME'}</t>
+          <t>{'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME', 'WILDLIFE_MASTERLIST.COMMON_NAME'}</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>{'Roadkill.Location', 'Roadkill.Big_Game'}</t>
+          <t>{'Roadkill.Big_Game', 'Roadkill.Location'}</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'HABITAT_CODES'}</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'HABITAT_CODES.Definition', 'VERTEBRATES.Number', 'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Species', 'HABITAT_CODES.Code'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Species', 'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'HABITAT_CODES.Definition', 'VERTEBRATES.Number', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Species'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -9602,35 +9602,35 @@
         <v>2692</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill'}</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -9640,22 +9640,22 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>{'Roadkill'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.HWY_Mile_Marker', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.Location'}</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.HWY_Mile_Marker', 'Roadkill.number_killed'}</t>
+          <t>{'Roadkill.number_killed'}</t>
         </is>
       </c>
       <c r="U115" t="n">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Notes', 'VERTEBRATES.Common_Name'}</t>
+          <t>{'VERTEBRATES.Notes', 'VERTEBRATES.Observer', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class', 'INVERTEBRATES.Order', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Location', 'INVERTEBRATES.Family'}</t>
+          <t>{'INVERTEBRATES.Order', 'INVERTEBRATES.Family', 'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Observer', 'INVERTEBRATES.Location'}</t>
+          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Common_Name', 'VERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -10285,12 +10285,12 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_Events.Start_Date', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Locations.Location_ID', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Edit_Log'}</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -10610,12 +10610,12 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Edit_Log.Table', 'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Field', 'tbl_Edit_Log.Reason'}</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>{'tbl_Db_Revisions.Db_Meta_ID', 'tbl_Db_Revisions.Revision_Date', 'tbl_Db_Revisions.Revision_Reason'}</t>
+          <t>{'tbl_Db_Revisions.Revision_Date', 'tbl_Db_Revisions.Db_Meta_ID', 'tbl_Db_Revisions.Revision_Reason'}</t>
         </is>
       </c>
       <c r="U127" t="n">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.SurfaceWater', 'tbl_MicroHabitat.Soil_Dist'}</t>
+          <t>{'tbl_MicroHabitat.Soil_Dist', 'tbl_MicroHabitat.SurfaceWater'}</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -10722,35 +10722,35 @@
         <v>4232</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_MicroHabitat', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -10760,22 +10760,22 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_MicroHabitat', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_MicroHabitat.LightIndex', 'tbl_MicroHabitat.Litter', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_MicroHabitat.VegHeight', 'tbl_Events.Location_ID', 'tbl_MicroHabitat.Evergreen'}</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_MicroHabitat.Event_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Elevation', 'tbl_MicroHabitat.Evergreen', 'tbl_MicroHabitat.VegHeight', 'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.LightIndex'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U129" t="n">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LAVO.Species', 'tlu_Species_LAVO.SampleYear', 'tlu_Species_LAVO.Park'}</t>
+          <t>{'tlu_Species_LAVO.SampleYear', 'tlu_Species_LAVO.Species', 'tlu_Species_LAVO.Park'}</t>
         </is>
       </c>
       <c r="U131" t="n">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>{'tlu_Species_REDW.SampleYear', 'tlu_Species_REDW.Species'}</t>
+          <t>{'tlu_Species_REDW.Species', 'tlu_Species_REDW.SampleYear'}</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>{'tlu_Species_REDW.Species', 'tlu_Species_WHIS.Species'}</t>
+          <t>{'tlu_Species_WHIS.Species', 'tlu_Species_REDW.Species'}</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LAVO', 'tlu_Species_ORCA'}</t>
+          <t>{'tlu_Species_ORCA', 'tlu_Species_LAVO'}</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species'}</t>
+          <t>{'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.State_Code', 'tlu_Contacts.City', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.State_Code', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.City', 'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tbl_Db_Revisions.Revision_Contact_ID', 'tbl_Db_Revisions.Revision_Reason', 'tbl_Db_Revisions.Revision_Desc', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tbl_Db_Revisions.Revision_Reason', 'tbl_Db_Revisions.Revision_Contact_ID', 'tlu_Contacts.First_Name', 'tbl_Db_Revisions.Revision_Desc'}</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -11842,35 +11842,35 @@
         <v>3190</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -11880,12 +11880,12 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Sites.Route', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Length', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -11895,7 +11895,7 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Sites.Site_Desc', 'tbl_Sites.Route', 'tbl_Sites.Length', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U143" t="n">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_Name'}</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -12002,35 +12002,35 @@
         <v>3482</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>{'tbl_Sites', 'tbl_Locations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U145" t="n">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Locations.Site_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Loc_Name', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -12162,35 +12162,35 @@
         <v>3248</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -12200,12 +12200,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts', 'tlu_Contacts'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.First_Name', 'xref_Event_Contacts.Contact_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U147" t="n">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tbl_Events.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Events.Start_Date', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Position_Title', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -12322,35 +12322,35 @@
         <v>3638</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -12360,12 +12360,12 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Loc_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U149" t="n">
@@ -12402,60 +12402,60 @@
         <v>3634</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations'}</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>{'tbl_Sites', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Events.Location_ID', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Site_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Sites.Site_ID', 'tbl_Sites.Site_Desc', 'tbl_Sites.Site_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U150" t="n">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Locations.EPE', 'tbl_Sites.Site_ID', 'tbl_Locations.PDOP', 'tbl_Locations.HDOP', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.PDOP', 'tbl_Locations.HDOP', 'tbl_Sites.Site_Name', 'tbl_Locations.EPE', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -12722,35 +12722,35 @@
         <v>4040</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -12760,12 +12760,12 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>{'tbl_Sites', 'tbl_Locations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Loc_Type', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID', 'tbl_Locations.Loc_Type', 'tbl_Sites.Site_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U154" t="n">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Watershed', 'tbl_Locations.Subwatershed'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Watershed', 'tbl_Events.Location_ID', 'tbl_Locations.Subwatershed'}</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.Loc_Name', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Y_Coord', 'tbl_Locations.Est_H_Error', 'tbl_Locations.X_Coord', 'tbl_Locations.Datum', 'tbl_Locations.Loc_Type', 'tbl_Locations.Coord_System'}</t>
+          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.X_Coord', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Coord_System', 'tbl_Locations.Y_Coord', 'tbl_Locations.Datum', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Type', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_MacroHabitat'}</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.Hydrology', 'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.Event_ID', 'tbl_Events.Event_ID', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Aspect', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Hydrology', 'tbl_MacroHabitat.MacroHab'}</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.Deciduous'}</t>
+          <t>{'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Deciduous', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Herb'}</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails.Notes', 'tlu_Roads_and_Trails.ListedName'}</t>
+          <t>{'tlu_Roads_and_Trails.ListedName', 'tlu_Roads_and_Trails.Notes'}</t>
         </is>
       </c>
       <c r="U164" t="n">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_Date', 'tbl_Locations.Location_ID', 'tbl_Locations.SiteDescription'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Events.Location_ID', 'tbl_Events.Event_Date', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -13725,17 +13725,17 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName'}</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tbl_Nests.Event_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.Module', 'tbl_Saplings.spcode', 'tbl_Saplings.Event_ID'}</t>
+          <t>{'tbl_Saplings.spcode', 'tbl_Saplings.Event_ID', 'tbl_Saplings.Module'}</t>
         </is>
       </c>
       <c r="U166" t="n">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.Event_ID', 'tbl_Overstory.DBH', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tbl_Overstory.DBH', 'tbl_Overstory.Event_ID', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.DClass1', 'tbl_Saplings.DClass4', 'tbl_Saplings.DClass3', 'tbl_Saplings.spcode', 'tbl_Saplings.DClass2'}</t>
+          <t>{'tbl_Saplings.DClass4', 'tbl_Saplings.DClass1', 'tbl_Saplings.DClass3', 'tbl_Saplings.spcode', 'tbl_Saplings.DClass2'}</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -13950,7 +13950,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Seedlings'}</t>
+          <t>{'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Seedlings', 'tbl_Events'}</t>
+          <t>{'tbl_Seedlings', 'tbl_Events', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Events.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Seedlings.Event_ID', 'tbl_Seedlings.Density'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
@@ -14125,7 +14125,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.State', 'tlu_PlaceNames.utmN'}</t>
+          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.State'}</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.SpCode'}</t>
+          <t>{'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeTag', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag'}</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -14350,7 +14350,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory', 'tlu_Tree_Cond'}</t>
+          <t>{'tlu_Tree_Cond', 'tbl_Overstory'}</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
@@ -14402,35 +14402,35 @@
         <v>4820</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_WitnessTrees'}</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -14440,12 +14440,12 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Location_ID'}</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Location_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U175" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.CanPos', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.CanPos', 'tbl_Overstory.SpCode', 'tlu_Can_Pos.CanPos_Num', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.SiteDescription', 'tbl_Locations.Elevation', 'tlu_topo_position.TopoPosition', 'tlu_topo_position.ID', 'tbl_Locations.Aspect', 'tbl_Locations.Slope_shape', 'tbl_Locations.Topo_Position', 'tbl_Locations.Slope'}</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_Locations.Topo_Position', 'tbl_Locations.Slope', 'tlu_topo_position.ID', 'tlu_topo_position.TopoPosition', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Aspect'}</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
@@ -14765,7 +14765,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.SpCode', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Nest_ID'}</t>
+          <t>{'tbl_Nests.Nest_ID', 'tbl_Nests.SpCode', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num'}</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
@@ -14830,7 +14830,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Length', 'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -15085,17 +15085,17 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>{'tlu_R1_RestOfPlot.Pres_Num', 'tlu_PlantSpecies.SpeciesCode', 'tlu_R1_RestOfPlot.Pres_Text', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_R1_RestOfPlot.Pres_Text', 'tlu_PlantSpecies.SpeciesCode', 'tlu_R1_RestOfPlot.Pres_Num'}</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.R1', 'tbl_Nests.SpCode'}</t>
+          <t>{'tbl_Nests.SpCode', 'tbl_Nests.R1'}</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.spcode', 'tbl_Saplings.Condition'}</t>
+          <t>{'tbl_Saplings.Condition', 'tbl_Saplings.spcode'}</t>
         </is>
       </c>
       <c r="U183" t="n">
@@ -15122,35 +15122,35 @@
         <v>3891</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -15160,12 +15160,12 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesNotes'}</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.genus'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U184" t="n">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>{'tsys_App_Releases.File_name', 'tsys_App_Releases.Database_title', 'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date'}</t>
+          <t>{'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.File_name', 'tsys_App_Releases.Database_title'}</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Density'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -15485,12 +15485,12 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.DBH', 'tbl_Events.Event_Date', 'tbl_Overstory.Event_ID', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Overstory.DBH', 'tbl_Overstory.SpCode', 'tbl_Events.Event_Date', 'tbl_Overstory.Event_ID'}</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails.Layer', 'tlu_Roads_and_Trails.ValidName'}</t>
+          <t>{'tlu_Roads_and_Trails.ValidName', 'tlu_Roads_and_Trails.Layer'}</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
@@ -15762,35 +15762,35 @@
         <v>3958</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlaceNames'}</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -15800,12 +15800,12 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.State', 'tlu_PlaceNames.Name'}</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.Name', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.State'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U192" t="n">
@@ -15885,7 +15885,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Event_ID', 'tlu_Presence.Pres_Text', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Num'}</t>
+          <t>{'tbl_Nests.Event_ID', 'tlu_Presence.Pres_Num', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Text'}</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord'}</t>
         </is>
       </c>
       <c r="T194" t="inlineStr">
@@ -16002,35 +16002,35 @@
         <v>4404</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -16040,22 +16040,22 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Seedlings'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings.Density', 'tlu_PlantSpecies.CommonName', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName', 'tbl_Seedlings.Density'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U195" t="n">
@@ -16082,35 +16082,35 @@
         <v>3830</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -16120,22 +16120,22 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID'}</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID', 'tbl_Seedlings.Density'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U196" t="n">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Locations', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.SpCode', 'tbl_Locations.Elevation', 'tlu_PlantSpecies.genus', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tbl_Locations.Elevation', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Datum', 'tbl_Locations.Plot_ID', 'tbl_Locations.Coord_System'}</t>
+          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.Coord_System', 'tbl_Locations.Datum', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Plot_ID'}</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -16510,7 +16510,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="T210" t="inlineStr">
         <is>
-          <t>{'DRIVER.CASEID', 'DRIVER.BAC'}</t>
+          <t>{'DRIVER.BAC', 'DRIVER.CASEID'}</t>
         </is>
       </c>
       <c r="U210" t="n">
@@ -17325,17 +17325,17 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.MAKE', 'GV.CASEID', 'GV.CURBWT', 'GV.MODEL'}</t>
+          <t>{'GV.CURBWT', 'GV.CASEID', 'GV.MAKE', 'GV.VEHNO', 'GV.MODEL'}</t>
         </is>
       </c>
       <c r="T211" t="inlineStr">
         <is>
-          <t>{'VEHSPEC.PSU', 'VPICDECODE.PSU', 'VPICDECODE.CASENO', 'VEHSPEC.CASENO', 'VEHSPEC.VEHNO', 'VEHSPEC.CURBWT', 'VEHSPEC.CASEID'}</t>
+          <t>{'VEHSPEC.CURBWT', 'VEHSPEC.PSU', 'VPICDECODE.CASENO', 'VEHSPEC.VEHNO', 'VPICDECODE.PSU', 'VEHSPEC.CASENO', 'VEHSPEC.CASEID'}</t>
         </is>
       </c>
       <c r="U211" t="n">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.LIGHTCOND'}</t>
+          <t>{'GV.LIGHTCOND', 'GV.CASEID'}</t>
         </is>
       </c>
       <c r="T213" t="inlineStr">
@@ -17725,17 +17725,17 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.SPEEDLIMIT', 'GV.VEHNO'}</t>
+          <t>{'GV.SPEEDLIMIT', 'GV.CASEID', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH.CASEID', 'EDRPOSTCRASH.PVALUE', 'EDRPOSTCRASH.VEHNO', 'EDRPOSTCRASH.PCODE'}</t>
+          <t>{'EDRPOSTCRASH.PCODE', 'EDRPOSTCRASH.PVALUE', 'EDRPOSTCRASH.VEHNO', 'EDRPOSTCRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U216" t="n">
@@ -17815,7 +17815,7 @@
       </c>
       <c r="T217" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH.PVALUE', 'EDRPOSTCRASH.PCODE'}</t>
+          <t>{'EDRPOSTCRASH.PCODE', 'EDRPOSTCRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="U217" t="n">
@@ -17895,7 +17895,7 @@
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PTIME', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.VEHNO'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PTIME'}</t>
         </is>
       </c>
       <c r="U218" t="n">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>{'INTRUSION.INTDIRECT', 'INTRUSION.CASEID', 'INTRUSION.VEHNO', 'INTRUSION.INTMAG', 'INTRUSION.INTCOMP'}</t>
+          <t>{'INTRUSION.INTCOMP', 'INTRUSION.VEHNO', 'INTRUSION.INTDIRECT', 'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="S221" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>{'INJURY', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'INJURY'}</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -18690,7 +18690,7 @@
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>{'INJURY.AIS', 'INJURY.CASEID', 'VPICDECODE.CASEID'}</t>
+          <t>{'INJURY.CASEID', 'VPICDECODE.CASEID', 'INJURY.AIS'}</t>
         </is>
       </c>
       <c r="T228" t="inlineStr">
@@ -18722,35 +18722,35 @@
         <v>8490</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L229" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M229" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE', 'INJURY'}</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -18760,22 +18760,22 @@
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>{'INJURY', 'VPICDECODE'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE.VEHNO', 'INJURY.CASEID', 'VPICDECODE.CASEID', 'INJURY.VEHNO', 'INJURY.REGION'}</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T229" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.PSU', 'INJURY.CASENO', 'VPICDECODE.VEHNO', 'INJURY.CASEID', 'VPICDECODE.ManufacturerFullName', 'INJURY.REGION', 'VPICDECODE.CASENO', 'INJURY.PSU', 'INJURY.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'INJURY.PSU', 'VPICDECODE.CASENO', 'INJURY.CASENO', 'VPICDECODE.PSU', 'VPICDECODE.ManufacturerFullName'}</t>
         </is>
       </c>
       <c r="U229" t="n">
@@ -19015,7 +19015,7 @@
       </c>
       <c r="T232" t="inlineStr">
         <is>
-          <t>{'EMSCARE.CASEID', 'CRASH.CASEID', 'CRASH.CRASHTIME'}</t>
+          <t>{'EMSCARE.CASEID', 'CRASH.CRASHTIME', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U232" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>{'EMSCARE.CASEID', 'CRASH.CASEID', 'CRASH.CRASHTIME'}</t>
+          <t>{'EMSCARE.CASEID', 'CRASH.CRASHTIME', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U233" t="n">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>{'EMSCARE.SCENEDEP', 'EMSCARE.ARRMEDICAL', 'EMSCARE.CASEID', 'EMSCARE.EMSTYPE', 'EMSCARE.NOTIFIED', 'EMSCARE.SCENEARR'}</t>
+          <t>{'EMSCARE.ARRMEDICAL', 'EMSCARE.NOTIFIED', 'EMSCARE.CASEID', 'EMSCARE.SCENEARR', 'EMSCARE.EMSTYPE', 'EMSCARE.SCENEDEP'}</t>
         </is>
       </c>
       <c r="S234" t="inlineStr">
@@ -19362,35 +19362,35 @@
         <v>7310</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
@@ -19400,12 +19400,12 @@
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>{'VPICDECODE'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S237" t="inlineStr">
@@ -19415,7 +19415,7 @@
       </c>
       <c r="T237" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U237" t="n">
@@ -19575,7 +19575,7 @@
       </c>
       <c r="T239" t="inlineStr">
         <is>
-          <t>{'OCC.VEHNO', 'OCC.ROLE', 'OCC.CASEID'}</t>
+          <t>{'OCC.ROLE', 'OCC.CASEID', 'OCC.VEHNO'}</t>
         </is>
       </c>
       <c r="U239" t="n">
@@ -19810,7 +19810,7 @@
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.CDCPLANE', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.CDCPLANE'}</t>
         </is>
       </c>
       <c r="T242" t="inlineStr">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="S243" t="inlineStr">
         <is>
-          <t>{'INTERIOR.GLAZINGCONT', 'INTERIOR.CASEID'}</t>
+          <t>{'INTERIOR.CASEID', 'INTERIOR.GLAZINGCONT'}</t>
         </is>
       </c>
       <c r="T243" t="inlineStr">
@@ -19955,7 +19955,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC'}</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
@@ -19970,12 +19970,12 @@
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC.RECFRONT1'}</t>
         </is>
       </c>
       <c r="T244" t="inlineStr">
         <is>
-          <t>{'TIRE.TIRELOC', 'TIRE.TIRESIZE'}</t>
+          <t>{'TIRE.TIRESIZE', 'TIRE.TIRELOC'}</t>
         </is>
       </c>
       <c r="U244" t="n">
@@ -20125,12 +20125,12 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>{'GLAZING.VEHNO', 'GLAZING.GLAZIMP'}</t>
+          <t>{'GLAZING.GLAZIMP', 'GLAZING.VEHNO'}</t>
         </is>
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VIN', 'GV.VEHNO', 'GLAZING.CASEID'}</t>
+          <t>{'GLAZING.CASEID', 'GV.VIN', 'GV.CASEID', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="T246" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="T247" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'ADAPT.CASEID', 'ADAPT.ADAPT'}</t>
+          <t>{'ADAPT.ADAPT', 'ADAPT.CASEID', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U247" t="n">
@@ -20242,35 +20242,35 @@
         <v>6495</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'EDRPOSTCRASH'}</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
@@ -20280,12 +20280,12 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'EDRPOSTCRASH.PCODE', 'EDRPOSTCRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="S248" t="inlineStr">
@@ -20295,7 +20295,7 @@
       </c>
       <c r="T248" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH.PVALUE', 'EDRPOSTCRASH.PCODE'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U248" t="n">
@@ -20445,7 +20445,7 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID'}</t>
         </is>
       </c>
       <c r="S250" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'EDRPRECRASH'}</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PCODE', 'VPICDECODE.Make', 'VPICDECODE.CASEID'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S251" t="inlineStr">
@@ -20925,7 +20925,7 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>{'OCC.HEIGHT', 'OCC.AGE'}</t>
+          <t>{'OCC.AGE', 'OCC.HEIGHT'}</t>
         </is>
       </c>
       <c r="S256" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="S259" t="inlineStr">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>{'OCC.MORTALITY', 'OCC.BELTUSE'}</t>
+          <t>{'OCC.BELTUSE', 'OCC.MORTALITY'}</t>
         </is>
       </c>
       <c r="S261" t="inlineStr">
@@ -21405,7 +21405,7 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>{'OCC.MORTALITY', 'OCC.BELTUSE'}</t>
+          <t>{'OCC.BELTUSE', 'OCC.MORTALITY'}</t>
         </is>
       </c>
       <c r="S262" t="inlineStr">
@@ -21490,7 +21490,7 @@
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.PDOF', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.PDOF'}</t>
         </is>
       </c>
       <c r="T263" t="inlineStr">
@@ -21602,35 +21602,35 @@
         <v>7200</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M265" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N265" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC'}</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
@@ -21640,12 +21640,12 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>{'CDC'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC.CMAX'}</t>
         </is>
       </c>
       <c r="S265" t="inlineStr">
@@ -21655,7 +21655,7 @@
       </c>
       <c r="T265" t="inlineStr">
         <is>
-          <t>{'CDC.CDC', 'CDC.CMAX'}</t>
+          <t>{'CDC.CDC'}</t>
         </is>
       </c>
       <c r="U265" t="n">
@@ -21805,7 +21805,7 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>{'CDC.DAMOTHPILLAR', 'CDC.VEHNO'}</t>
+          <t>{'CDC.VEHNO', 'CDC.DAMOTHPILLAR'}</t>
         </is>
       </c>
       <c r="S267" t="inlineStr">
@@ -21922,22 +21922,22 @@
         <v>7088</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L269" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC'}</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
@@ -21960,7 +21960,7 @@
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>{'CDC'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21970,7 +21970,7 @@
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC.DVBARRIER'}</t>
         </is>
       </c>
       <c r="T269" t="inlineStr">
@@ -22050,12 +22050,12 @@
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t>{'CDC.C6', 'CDC.C3', 'CDC.C1', 'CDC.VEHNO', 'CDC.C5', 'CDC.CMAX', 'CDC.CASEID', 'CDC.C4', 'CDC.C2'}</t>
+          <t>{'CDC.C1', 'CDC.C2', 'CDC.CASEID', 'CDC.C3', 'CDC.CMAX', 'CDC.VEHNO', 'CDC.C5', 'CDC.C6', 'CDC.C4'}</t>
         </is>
       </c>
       <c r="T270" t="inlineStr">
         <is>
-          <t>{'VEHMEAS.VERTGLAZ', 'VEHMEAS.LFOH', 'VEHMEAS.BACKLIGHT', 'VEHMEAS.RFBC', 'VEHMEAS.VERTDOOR', 'VEHMEAS.SIDEGLAZ', 'VEHMEAS.BACKBPILL', 'VEHMEAS.BACKPICKUP', 'VEHMEAS.LFBC', 'VEHMEAS.FRNTBUMP', 'VEHMEAS.LRBC', 'VEHMEAS.VEHNO', 'VEHMEAS.VERTROOF', 'VEHMEAS.FRNTWIND', 'VEHMEAS.WBRIGHT', 'VEHMEAS.SIDEROOF', 'VEHMEAS.WBLEFT', 'VEHMEAS.RRBC', 'VEHMEAS.SIDEDOOR', 'VEHMEAS.CASEID', 'VEHMEAS.RROH', 'VEHMEAS.FRNTHOOD', 'VEHMEAS.FRNTPILL', 'VEHMEAS.RFOH', 'VEHMEAS.REARBUMP', 'VEHMEAS.BACKTRUNK', 'VEHMEAS.LROH', 'VEHMEAS.PBED'}</t>
+          <t>{'VEHMEAS.BACKLIGHT', 'VEHMEAS.LFOH', 'VEHMEAS.VEHNO', 'VEHMEAS.RFBC', 'VEHMEAS.SIDEGLAZ', 'VEHMEAS.BACKBPILL', 'VEHMEAS.FRNTWIND', 'VEHMEAS.RFOH', 'VEHMEAS.SIDEROOF', 'VEHMEAS.BACKTRUNK', 'VEHMEAS.SIDEDOOR', 'VEHMEAS.RRBC', 'VEHMEAS.WBLEFT', 'VEHMEAS.BACKPICKUP', 'VEHMEAS.CASEID', 'VEHMEAS.FRNTHOOD', 'VEHMEAS.REARBUMP', 'VEHMEAS.FRNTPILL', 'VEHMEAS.VERTROOF', 'VEHMEAS.LRBC', 'VEHMEAS.VERTDOOR', 'VEHMEAS.LROH', 'VEHMEAS.RROH', 'VEHMEAS.FRNTBUMP', 'VEHMEAS.WBRIGHT', 'VEHMEAS.VERTGLAZ', 'VEHMEAS.PBED', 'VEHMEAS.LFBC'}</t>
         </is>
       </c>
       <c r="U270" t="n">
@@ -22130,12 +22130,12 @@
       </c>
       <c r="S271" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'EDREVENT.EDRSUMMNO', 'EDREVENT.VEHNO'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.VEHNO', 'EDREVENT.EDRSUMMNO'}</t>
         </is>
       </c>
       <c r="T271" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.CASEID', 'EDRSUMM.EDRSUMMNO', 'EDRSUMM.NUMEVENTS', 'EDRSUMM.VEHNO'}</t>
+          <t>{'EDRSUMM.VEHNO', 'EDRSUMM.CASEID', 'EDRSUMM.EDRSUMMNO', 'EDRSUMM.NUMEVENTS'}</t>
         </is>
       </c>
       <c r="U271" t="n">
@@ -22210,12 +22210,12 @@
       </c>
       <c r="S272" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'EDREVENT.EDREVENTNO'}</t>
+          <t>{'EDREVENT.EDREVENTNO', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="T272" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH.CASEID', 'EDRPOSTCRASH.CASENUMBER', 'EDRPOSTCRASH.EDREVENTNO'}</t>
+          <t>{'EDRPOSTCRASH.CASENUMBER', 'EDRPOSTCRASH.EDREVENTNO', 'EDRPOSTCRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U272" t="n">
@@ -22285,7 +22285,7 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S273" t="inlineStr">
@@ -22295,7 +22295,7 @@
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.CASENO', 'EDRPRECRASH.PVALUE', 'VPICDECODE.PSU', 'EDRPRECRASH.PSU', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'VPICDECODE.CASENO'}</t>
+          <t>{'EDRPRECRASH.CASENO', 'EDRPRECRASH.PCODE', 'VPICDECODE.CASENO', 'VPICDECODE.PSU', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PSU'}</t>
         </is>
       </c>
       <c r="U273" t="n">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="T274" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.VEHNO'}</t>
         </is>
       </c>
       <c r="U274" t="n">
@@ -22445,7 +22445,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>{'INJURY.VEHNO', 'INJURY.OCCNO'}</t>
+          <t>{'INJURY.OCCNO', 'INJURY.VEHNO'}</t>
         </is>
       </c>
       <c r="S275" t="inlineStr">
@@ -22510,7 +22510,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>{'FUEL', 'FIRE'}</t>
+          <t>{'FIRE', 'FUEL'}</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
@@ -22530,12 +22530,12 @@
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>{'FUEL.VEHNO', 'FIRE.VEHNO'}</t>
+          <t>{'FIRE.VEHNO', 'FUEL.VEHNO'}</t>
         </is>
       </c>
       <c r="T276" t="inlineStr">
         <is>
-          <t>{'FUEL.PSU', 'FIRE.CASENO', 'FIRE.FIRE', 'FUEL.CASENO', 'FIRE.PSU'}</t>
+          <t>{'FUEL.CASENO', 'FUEL.PSU', 'FIRE.PSU', 'FIRE.FIRE', 'FIRE.CASENO'}</t>
         </is>
       </c>
       <c r="U276" t="n">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>{'EJECT', 'OCC'}</t>
+          <t>{'OCC', 'EJECT'}</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -22610,7 +22610,7 @@
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>{'EJECT.OCCNO', 'EJECT.VEHNO', 'OCC.VEHNO', 'OCC.OCCNO', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.VEHNO', 'OCC.OCCNO', 'EJECT.OCCNO', 'EJECT.VEHNO'}</t>
         </is>
       </c>
       <c r="T277" t="inlineStr">
@@ -22775,7 +22775,7 @@
       </c>
       <c r="T279" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'AVOID.EQUIP'}</t>
+          <t>{'AVOID.EQUIP', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U279" t="n">
@@ -22802,35 +22802,35 @@
         <v>5874</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L280" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N280" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID'}</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
@@ -22840,22 +22840,22 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>{'AVOID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID.EQUIP'}</t>
         </is>
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID.AVAIL'}</t>
         </is>
       </c>
       <c r="T280" t="inlineStr">
         <is>
-          <t>{'AVOID.EQUIP'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U280" t="n">
@@ -22930,12 +22930,12 @@
       </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t>{'AVOID.CASEID', 'AVOID.AVAIL', 'AVOID.EQUIP', 'AVOID.VEHNO'}</t>
+          <t>{'AVOID.AVAIL', 'AVOID.CASEID', 'AVOID.EQUIP', 'AVOID.VEHNO'}</t>
         </is>
       </c>
       <c r="T281" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.TractionControlId', 'VPICDECODE.PedestrianAutoEmergencyBrakingID', 'VPICDECODE.ParkAssistId', 'VPICDECODE.DynamicBrakeSupportId', 'VPICDECODE.LaneDepartureWarningId', 'VPICDECODE.LaneCenteringAssistanceID', 'VPICDECODE.RearCrossTrafficAlertID', 'VPICDECODE.AutoPedestrianAlertingSoundID', 'VPICDECODE.AutomaticCrashNotificationId', 'VPICDECODE.AdaptiveCruiseControlId', 'VPICDECODE.BackupCameraID', 'VPICDECODE.BlindSpotWarningId', 'VPICDECODE.BlindSpotInterventionId', 'VPICDECODE.CrashImminentBrakingID', 'VPICDECODE.RearAutomaticEmergencyBrakingID', 'VPICDECODE.LaneKeepingAssistanceID', 'VPICDECODE.EventDataRecorderId', 'VPICDECODE.CASEID', 'VPICDECODE.ForwardCollisionWarningId'}</t>
+          <t>{'VPICDECODE.LaneKeepingAssistanceID', 'VPICDECODE.EventDataRecorderId', 'VPICDECODE.RearCrossTrafficAlertID', 'VPICDECODE.CrashImminentBrakingID', 'VPICDECODE.AutoPedestrianAlertingSoundID', 'VPICDECODE.BackupCameraID', 'VPICDECODE.RearAutomaticEmergencyBrakingID', 'VPICDECODE.BlindSpotInterventionId', 'VPICDECODE.ForwardCollisionWarningId', 'VPICDECODE.DynamicBrakeSupportId', 'VPICDECODE.LaneCenteringAssistanceID', 'VPICDECODE.LaneDepartureWarningId', 'VPICDECODE.ParkAssistId', 'VPICDECODE.PedestrianAutoEmergencyBrakingID', 'VPICDECODE.BlindSpotWarningId', 'VPICDECODE.TractionControlId', 'VPICDECODE.AdaptiveCruiseControlId', 'VPICDECODE.CASEID', 'VPICDECODE.AutomaticCrashNotificationId'}</t>
         </is>
       </c>
       <c r="U281" t="n">
@@ -23165,7 +23165,7 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.GVWR', 'TIREPLAC.GAWRFRONT', 'TIREPLAC.GAWRREAR'}</t>
+          <t>{'TIREPLAC.GAWRFRONT', 'TIREPLAC.GAWRREAR', 'TIREPLAC.GVWR'}</t>
         </is>
       </c>
       <c r="S284" t="inlineStr">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="T286" t="inlineStr">
         <is>
-          <t>{'TIRE.CASEID', 'TIRE.TIREMANUF', 'TIREPLAC.CASEID'}</t>
+          <t>{'TIRE.TIREMANUF', 'TIREPLAC.CASEID', 'TIRE.CASEID'}</t>
         </is>
       </c>
       <c r="U286" t="n">
@@ -23390,7 +23390,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
@@ -23405,12 +23405,12 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'VPICDECODE.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.VEHNO', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO'}</t>
         </is>
       </c>
       <c r="T287" t="inlineStr">
@@ -23485,12 +23485,12 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make', 'VPICDECODE.CASEID', 'VPICDECODE.ModelYear', 'TIREPLAC.RECRRPRESS1'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1', 'VPICDECODE.Model', 'VPICDECODE.CASEID', 'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.VEHNO', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO'}</t>
         </is>
       </c>
       <c r="T288" t="inlineStr">
@@ -23565,7 +23565,7 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
@@ -23645,12 +23645,12 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'VPICDECODE.VEHNO', 'TIRE.VEHNO', 'VPICDECODE.Make', 'TIRE.TIREMODEL'}</t>
+          <t>{'VPICDECODE.VEHNO', 'TIRE.TIREMODEL', 'VPICDECODE.Model', 'TIRE.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t>{'TIRE.CASEID', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'TIRE.CASEID'}</t>
         </is>
       </c>
       <c r="T290" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S291" t="inlineStr">
@@ -23790,7 +23790,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREDAMAGE'}</t>
+          <t>{'TIREDAMAGE', 'TIRE'}</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
@@ -23805,17 +23805,17 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.VEHNO', 'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIREDAMAGE.VEHNO', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t>{'TIRE.CASEID', 'TIREDAMAGE.CASEID', 'TIREDAMAGE.DAMAGE'}</t>
+          <t>{'TIREDAMAGE.CASEID', 'TIRE.CASEID', 'TIREDAMAGE.DAMAGE'}</t>
         </is>
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t>{'TIRE.TIRELOC', 'TIREDAMAGE.TIRELOC', 'TIREDAMAGE.CATEGORY'}</t>
+          <t>{'TIREDAMAGE.TIRELOC', 'TIREDAMAGE.CATEGORY', 'TIRE.TIRELOC'}</t>
         </is>
       </c>
       <c r="U292" t="n">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'TIRE'}</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC', 'TIREPLAC.CASEID', 'TIRE.TIRESIZE', 'TIRE.CASEID', 'TIREPLAC.VEHNO'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'TIREPLAC.CASEID'}</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
@@ -23950,7 +23950,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREPLAC', 'VPICDECODE'}</t>
+          <t>{'TIREPLAC', 'TIRE', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
@@ -23965,12 +23965,12 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'TIRE.TIRESIZE', 'VPICDECODE.Make', 'TIRE.CASEID', 'VPICDECODE.CASEID'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIRE.TIRESIZE', 'VPICDECODE.Model', 'VPICDECODE.CASEID', 'TIREPLAC.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.VEHNO', 'TIRE.VEHNO', 'VPICDECODE.VEHNO'}</t>
+          <t>{'TIRE.VEHNO', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO'}</t>
         </is>
       </c>
       <c r="T294" t="inlineStr">
@@ -24002,35 +24002,35 @@
         <v>9176</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>0.8125000000000001</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M295" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="N295" t="n">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC', 'TIRE', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
@@ -24040,12 +24040,12 @@
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREPLAC', 'VPICDECODE'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'VPICDECODE.VEHNO', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'VPICDECODE.CASEID', 'TIRE.VEHNO', 'TIREPLAC.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
@@ -24055,7 +24055,7 @@
       </c>
       <c r="T295" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC', 'TIRE.TIRESIZE', 'VPICDECODE.CASENO', 'TIRE.CASEID', 'VPICDECODE.Make', 'TIRE.CASENO', 'TIRE.PSU', 'TIREPLAC.CASEID', 'VPICDECODE.VEHNO', 'TIRE.VEHNO', 'VPICDECODE.PSU', 'TIREPLAC.VEHNO', 'VPICDECODE.CASEID', 'TIREPLAC.PSU', 'TIREPLAC.CASENO'}</t>
+          <t>{'TIRE.CASENO', 'VPICDECODE.CASENO', 'VPICDECODE.PSU', 'TIRE.PSU', 'TIREPLAC.CASENO', 'TIREPLAC.PSU'}</t>
         </is>
       </c>
       <c r="U295" t="n">
@@ -24190,7 +24190,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT', 'DISTRACT'}</t>
+          <t>{'DISTRACT', 'CHILDSEAT'}</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
@@ -24205,7 +24205,7 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.CASEID', 'DISTRACT.CASEID'}</t>
+          <t>{'DISTRACT.CASEID', 'CHILDSEAT.CASEID'}</t>
         </is>
       </c>
       <c r="S297" t="inlineStr">
@@ -24215,7 +24215,7 @@
       </c>
       <c r="T297" t="inlineStr">
         <is>
-          <t>{'DISTRACT.DISTRACTN', 'CHILDSEAT.HOWUSED'}</t>
+          <t>{'CHILDSEAT.HOWUSED', 'DISTRACT.DISTRACTN'}</t>
         </is>
       </c>
       <c r="U297" t="n">
@@ -24350,7 +24350,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT', 'DISTRACT', 'VPICDECODE'}</t>
+          <t>{'DISTRACT', 'CHILDSEAT', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
@@ -24365,12 +24365,12 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'VPICDECODE.VEHNO', 'CHILDSEAT.VEHNO', 'DISTRACT.VEHNO', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'CHILDSEAT.VEHNO', 'DISTRACT.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t>{'DISTRACT.DISTRACTN', 'VPICDECODE.CASEID', 'CHILDSEAT.CASEID', 'DISTRACT.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'DISTRACT.CASEID', 'DISTRACT.DISTRACTN', 'CHILDSEAT.CASEID'}</t>
         </is>
       </c>
       <c r="T299" t="inlineStr">
@@ -24445,7 +24445,7 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>{'DISTRACT.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'DISTRACT.VEHNO', 'DISTRACT.DISTRACTN', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.VEHNO', 'DISTRACT.CASEID', 'VPICDECODE.CASEID', 'DISTRACT.VEHNO', 'VPICDECODE.Make', 'DISTRACT.DISTRACTN'}</t>
         </is>
       </c>
       <c r="S300" t="inlineStr">
@@ -24455,7 +24455,7 @@
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'VPICDECODE.PSU', 'DISTRACT.CASENO', 'DISTRACT.PSU', 'VPICDECODE.CASENO'}</t>
+          <t>{'VPICDECODE.CASENO', 'DISTRACT.PSU', 'VPICDECODE.PSU', 'VPICDECODE.Model', 'DISTRACT.CASENO'}</t>
         </is>
       </c>
       <c r="U300" t="n">
@@ -24525,7 +24525,7 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'FIRE.CASEID', 'FIRE.FIRE', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Make', 'FIRE.FIRE', 'FIRE.CASEID'}</t>
         </is>
       </c>
       <c r="S301" t="inlineStr">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>{'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.LEVEL'}</t>
+          <t>{'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.LEVEL'}</t>
         </is>
       </c>
       <c r="S302" t="inlineStr">
@@ -24695,7 +24695,7 @@
       </c>
       <c r="T303" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_ELA.INSTITUTION_ID'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_ELA.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U303" t="n">
@@ -24845,7 +24845,7 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.ENTITY_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
         </is>
       </c>
       <c r="S305" t="inlineStr">
@@ -24910,7 +24910,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_MATH', 'Expenditures_per_Pupil'}</t>
+          <t>{'Expenditures_per_Pupil', 'Annual_EM_MATH'}</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
@@ -24925,17 +24925,17 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_MATH.ASSESSMENT_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_MATH.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S306" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_CD'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T306" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'Annual_EM_MATH.INSTITUTION_ID', 'Expenditures_per_Pupil.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U306" t="n">
@@ -25005,17 +25005,17 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Graduation_Rate.YEAR'}</t>
+          <t>{'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.YEAR'}</t>
         </is>
       </c>
       <c r="S307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_NAME'}</t>
+          <t>{'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T307" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U307" t="n">
@@ -25085,7 +25085,7 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S308" t="inlineStr">
@@ -25095,7 +25095,7 @@
       </c>
       <c r="T308" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U308" t="n">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.PER_LEVEL2'}</t>
+          <t>{'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S309" t="inlineStr">
@@ -25235,7 +25235,7 @@
       </c>
       <c r="P310" t="inlineStr">
         <is>
-          <t>{'Accountability_Status', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'Accountability_Status'}</t>
         </is>
       </c>
       <c r="Q310" t="inlineStr">
@@ -25250,12 +25250,12 @@
       </c>
       <c r="S310" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Accountability_Status.OVERALL_STATUS', 'Institution_Grouping.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="T310" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.INSTITUTION_ID'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="U310" t="n">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR', 'Accountability_Status.MADE_PROGRESS', 'Accountability_Status.ENTITY_NAME'}</t>
+          <t>{'Accountability_Status.YEAR', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.MADE_PROGRESS'}</t>
         </is>
       </c>
       <c r="S311" t="inlineStr">
@@ -25405,17 +25405,17 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}</t>
         </is>
       </c>
       <c r="T312" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX'}</t>
         </is>
       </c>
       <c r="U312" t="n">
@@ -25470,7 +25470,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
@@ -25485,17 +25485,17 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T313" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}</t>
         </is>
       </c>
       <c r="U313" t="n">
@@ -25550,7 +25550,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="P314" t="inlineStr">
@@ -25565,7 +25565,7 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S314" t="inlineStr">
@@ -25575,7 +25575,7 @@
       </c>
       <c r="T314" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}</t>
         </is>
       </c>
       <c r="U314" t="n">
@@ -25730,12 +25730,12 @@
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.ELL_COUNT'}</t>
         </is>
       </c>
       <c r="T316" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="U316" t="n">
@@ -25805,7 +25805,7 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT'}</t>
         </is>
       </c>
       <c r="S317" t="inlineStr">
@@ -25815,7 +25815,7 @@
       </c>
       <c r="T317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_ELP.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U317" t="n">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART'}</t>
         </is>
       </c>
       <c r="S318" t="inlineStr">
@@ -25895,7 +25895,7 @@
       </c>
       <c r="T318" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U318" t="n">
@@ -26045,17 +26045,17 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ELL_COUNT'}</t>
         </is>
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'BOCES_and_N/RC.YEAR', 'ACC_EM_ELP.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.YEAR'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.YEAR', 'BOCES_and_N/RC.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="U320" t="n">
@@ -26125,7 +26125,7 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.YEAR'}</t>
         </is>
       </c>
       <c r="S321" t="inlineStr">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="T321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U321" t="n">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_Participation_Rate.MET_95_PERCENT', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_Participation_Rate.MET_95_PERCENT'}</t>
         </is>
       </c>
       <c r="S322" t="inlineStr">
@@ -26285,17 +26285,17 @@
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.RATE', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.RATE'}</t>
         </is>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID'}</t>
+          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U323" t="n">
@@ -26370,12 +26370,12 @@
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBJECT'}</t>
         </is>
       </c>
       <c r="U324" t="n">
@@ -26402,35 +26402,35 @@
         <v>5354</v>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M325" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N325" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_EM_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P325" t="inlineStr">
@@ -26440,12 +26440,12 @@
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_EM_Chronic_Absenteeism'}</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S325" t="inlineStr">
@@ -26455,7 +26455,7 @@
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U325" t="n">
@@ -26525,7 +26525,7 @@
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S326" t="inlineStr">
@@ -26605,12 +26605,12 @@
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T327" t="inlineStr">
@@ -26642,60 +26642,60 @@
         <v>5457</v>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L328" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N328" t="n">
-        <v>0</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U328" t="n">
@@ -26765,7 +26765,7 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="S329" t="inlineStr">
@@ -26802,35 +26802,35 @@
         <v>5632</v>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L330" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M330" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N330" t="n">
-        <v>0</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
@@ -26840,22 +26840,22 @@
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T330" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U330" t="n">
@@ -26915,7 +26915,7 @@
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="Q331" t="inlineStr">
@@ -26930,12 +26930,12 @@
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="T331" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="U331" t="n">
@@ -27010,12 +27010,12 @@
       </c>
       <c r="S332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.PROGRESS_RATE'}</t>
+          <t>{'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="T332" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUBJECT', 'ACC_EM_ELP.YEAR', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.LEVEL'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_ELP.YEAR', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U332" t="n">
@@ -27070,7 +27070,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_HS_ELP'}</t>
+          <t>{'ACC_HS_ELP', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
@@ -27122,60 +27122,60 @@
         <v>5842</v>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G334" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>0.1538461538461538</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J334" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L334" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M334" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N334" t="n">
-        <v>0</v>
+        <v>0.09523809523809525</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Expenditures_per_Pupil'}</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_ELP', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP', 'Expenditures_per_Pupil'}</t>
+          <t>{'ACC_EM_ELP'}</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Expenditures_per_Pupil.YEAR'}</t>
         </is>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'Institution_Grouping.GROUP_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="T334" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUBJECT', 'ACC_EM_ELP.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_ELP.ELL_COUNT', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.INSTITUTION_ID', 'Expenditures_per_Pupil.YEAR', 'ACC_EM_ELP.ENTITY_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_ELP.YEAR', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U334" t="n">
@@ -27245,7 +27245,7 @@
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S335" t="inlineStr">
@@ -27325,7 +27325,7 @@
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S336" t="inlineStr">
@@ -27405,7 +27405,7 @@
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S337" t="inlineStr">
@@ -27485,7 +27485,7 @@
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED'}</t>
         </is>
       </c>
       <c r="S338" t="inlineStr">
@@ -27495,7 +27495,7 @@
       </c>
       <c r="T338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_SCIENCE.INSTITUTION_ID'}</t>
+          <t>{'Annual_EM_SCIENCE.INSTITUTION_ID', 'Annual_EM_SCIENCE.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U338" t="n">
@@ -27565,12 +27565,12 @@
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S339" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T339" t="inlineStr">
@@ -27725,7 +27725,7 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
+          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S341" t="inlineStr">
@@ -27735,7 +27735,7 @@
       </c>
       <c r="T341" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.INSTITUTION_ID', 'Annual_NYSESLAT.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME'}</t>
+          <t>{'Annual_NYSESLAT.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U341" t="n">
@@ -27810,12 +27810,12 @@
       </c>
       <c r="S342" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_TRAN'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="T342" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUBJECT', 'ACC_EM_ELP.YEAR', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_ELP.YEAR', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U342" t="n">
@@ -27885,17 +27885,17 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_ENT', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.YEAR'}</t>
         </is>
       </c>
       <c r="S343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T343" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'Annual_NYSESLAT.INSTITUTION_ID', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
+          <t>{'Annual_NYSESLAT.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U343" t="n">
@@ -27970,12 +27970,12 @@
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.PER_TRAN', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Annual_NYSESLAT.PER_EMER', 'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="T344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSAA.SUBJECT', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'Annual_NYSAA.YEAR', 'Annual_NYSAA.LEVEL4_PER', 'Annual_NYSAA.LEVEL2_PER', 'Annual_NYSAA.ENTITY_CD'}</t>
+          <t>{'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL3_PER', 'Annual_NYSAA.SUBJECT', 'Annual_NYSAA.PROFICIENT_PER', 'Annual_NYSAA.LEVEL4_PER', 'Annual_NYSAA.YEAR', 'Annual_NYSAA.LEVEL2_PER', 'Annual_NYSAA.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="U344" t="n">
@@ -28045,7 +28045,7 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_TRAN', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.NUM_EMER'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.NUM_TRAN'}</t>
         </is>
       </c>
       <c r="S345" t="inlineStr">
@@ -28285,17 +28285,17 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.YEAR', 'Expenditures_per_Pupil.YEAR'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'Expenditures_per_Pupil.YEAR', 'BOCES_and_N/RC.YEAR'}</t>
         </is>
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'BOCES_and_N/RC.ENTITY_CD'}</t>
+          <t>{'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.INSTITUTION_ID', 'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'Expenditures_per_Pupil.FEDERAL_EXP', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
+          <t>{'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Expenditures_per_Pupil.FEDERAL_EXP', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U348" t="n">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="T350" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.BOCES_CD', 'BOCES_and_N/RC.COUNTY_CD'}</t>
+          <t>{'BOCES_and_N/RC.COUNTY_CD', 'BOCES_and_N/RC.BOCES_CD'}</t>
         </is>
       </c>
       <c r="U350" t="n">
@@ -28525,7 +28525,7 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S351" t="inlineStr">
@@ -28562,60 +28562,60 @@
         <v>5161</v>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L352" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N352" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals'}</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="S352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T352" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U352" t="n">
@@ -28642,35 +28642,35 @@
         <v>5110</v>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L353" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M353" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N353" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'BOCES_and_N/RC', 'Inexperienced_Teachers_and_Principals'}</t>
         </is>
       </c>
       <c r="P353" t="inlineStr">
@@ -28680,22 +28680,22 @@
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC', 'Inexperienced_Teachers_and_Principals'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'BOCES_and_N/RC.DISTRICT_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T353" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.DISTRICT_CD', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'BOCES_and_N/RC.DISTRICT_NAME'}</t>
+          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.DISTRICT_CD', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.YEAR'}</t>
         </is>
       </c>
       <c r="U353" t="n">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
+          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.OUT_4_YR_CNT'}</t>
         </is>
       </c>
       <c r="S355" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="T355" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'Postsecondary_Enrollment.YEAR', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'Postsecondary_Enrollment.YEAR', 'BOCES_and_N/RC.INSTITUTION_ID', 'Postsecondary_Enrollment.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U355" t="n">
@@ -28925,7 +28925,7 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
+          <t>{'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S356" t="inlineStr">
@@ -28935,7 +28935,7 @@
       </c>
       <c r="T356" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.GRAD_COUNT', 'ACC_HS_Graduation_Rate.YEAR'}</t>
+          <t>{'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Postsecondary_Enrollment.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.GRAD_COUNT'}</t>
         </is>
       </c>
       <c r="U356" t="n">
@@ -28962,60 +28962,60 @@
         <v>5081</v>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J357" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L357" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="M357" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N357" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Teachers_Teaching_Out_of_Certification'}</t>
         </is>
       </c>
       <c r="P357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC', 'Teachers_Teaching_Out_of_Certification'}</t>
+          <t>{'BOCES_and_N/RC'}</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.YEAR'}</t>
         </is>
       </c>
       <c r="S357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T357" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.YEAR', 'BOCES_and_N/RC.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC', 'BOCES_and_N/RC.DISTRICT_NAME'}</t>
+          <t>{'BOCES_and_N/RC.DISTRICT_NAME', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}</t>
         </is>
       </c>
       <c r="U357" t="n">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT'}</t>
         </is>
       </c>
       <c r="S358" t="inlineStr">
@@ -29095,7 +29095,7 @@
       </c>
       <c r="T358" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U358" t="n">
@@ -29170,12 +29170,12 @@
       </c>
       <c r="S359" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T359" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.YEAR', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}</t>
+          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}</t>
         </is>
       </c>
       <c r="U359" t="n">
@@ -29245,7 +29245,7 @@
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT'}</t>
+          <t>{'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S360" t="inlineStr">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'Total_Cohort_Regents_Exams'}</t>
         </is>
       </c>
       <c r="Q361" t="inlineStr">
@@ -29330,12 +29330,12 @@
       </c>
       <c r="S361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Total_Cohort_Regents_Exams.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T361" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.SUBJECT'}</t>
+          <t>{'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U361" t="n">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S363" t="inlineStr">
@@ -29522,60 +29522,60 @@
         <v>5021</v>
       </c>
       <c r="F364" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I364" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L364" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="M364" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N364" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment'}</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment.PER_OUT_4_YR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR'}</t>
         </is>
       </c>
       <c r="S364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.MEMBERSHIP_DESC', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.PER_OUT_4_YR'}</t>
+          <t>{'Postsecondary_Enrollment.MEMBERSHIP_DESC'}</t>
         </is>
       </c>
       <c r="U364" t="n">
@@ -29805,7 +29805,7 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S367" t="inlineStr">
@@ -30125,7 +30125,7 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.City', 'tlu_Contacts.Zip_Code'}</t>
+          <t>{'tlu_Contacts.Zip_Code', 'tlu_Contacts.City'}</t>
         </is>
       </c>
       <c r="S371" t="inlineStr">
@@ -30205,7 +30205,7 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Repeat_Sample', 'tbl_Events.Verified_by', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Verified_by', 'tbl_Events.Repeat_Sample'}</t>
         </is>
       </c>
       <c r="S372" t="inlineStr">
@@ -30215,7 +30215,7 @@
       </c>
       <c r="T372" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="U372" t="n">
@@ -30290,12 +30290,12 @@
       </c>
       <c r="S373" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Habitat', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="T373" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Event_ID', 'tbl_Observations.Observation_ID', 'tbl_Habitat.Event_ID', 'tbl_Habitat.Habitat_ID'}</t>
+          <t>{'tbl_Habitat.Event_ID', 'tbl_Observations.Observation_ID', 'tbl_Habitat.Habitat_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="U373" t="n">
@@ -30370,12 +30370,12 @@
       </c>
       <c r="S374" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Habitat', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="T374" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Event_ID', 'tbl_Habitat.Event_ID', 'tbl_Habitat.Habitat_ID'}</t>
+          <t>{'tbl_Habitat.Event_ID', 'tbl_Habitat.Habitat_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="U374" t="n">
@@ -30482,35 +30482,35 @@
         <v>3787</v>
       </c>
       <c r="F376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
@@ -30520,12 +30520,12 @@
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID'}</t>
         </is>
       </c>
       <c r="S376" t="inlineStr">
@@ -30535,7 +30535,7 @@
       </c>
       <c r="T376" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Common_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U376" t="n">
@@ -30562,35 +30562,35 @@
         <v>4851</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L377" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M377" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N377" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Habitat'}</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -30600,22 +30600,22 @@
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts', 'tbl_Habitat', 'tlu_Contacts', 'tbl_Events'}</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Habitat.Understory_Comp', 'tbl_Habitat.Event_ID', 'tbl_Events.Event_ID', 'tbl_Habitat.Canopy_Comp'}</t>
         </is>
       </c>
       <c r="S377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Entered_by'}</t>
         </is>
       </c>
       <c r="T377" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts.Contact_Role', 'tlu_Contacts.Last_Name', 'tbl_Events.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Habitat.Event_ID', 'tbl_Habitat.Understory_Comp', 'tlu_Contacts.Contact_ID', 'tbl_Habitat.Canopy_Comp', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Event_ID', 'xref_Event_Contacts.Contact_Role', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="U377" t="n">
@@ -30670,7 +30670,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Event_Details'}</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Entered_by', 'tbl_Event_Details.Wind', 'tbl_Events.Event_ID', 'tbl_Events.Updated_by', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Cloud', 'tbl_Event_Details.Gust'}</t>
+          <t>{'tbl_Event_Details.Cloud', 'tbl_Events.Event_ID', 'tbl_Event_Details.Wind', 'tbl_Events.Entered_by', 'tbl_Events.Updated_by', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Gust'}</t>
         </is>
       </c>
       <c r="S378" t="inlineStr">
@@ -30695,7 +30695,7 @@
       </c>
       <c r="T378" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="U378" t="n">
@@ -30882,35 +30882,35 @@
         <v>3798</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="I381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L381" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N381" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Detections', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -30920,22 +30920,22 @@
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Detections'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Species.Common_Name', 'tbl_Detections.Observation_ID', 'tbl_Observations.Species_ID', 'tbl_Detections.Distance'}</t>
         </is>
       </c>
       <c r="S381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Observations.Observation_ID', 'tlu_Species.Species_ID'}</t>
         </is>
       </c>
       <c r="T381" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Distance', 'tbl_Observations.Species_ID', 'tbl_Detections.Observation_ID', 'tlu_Species.Common_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U381" t="n">
@@ -30990,7 +30990,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'xref_Species_Alternate_Names'}</t>
+          <t>{'xref_Species_Alternate_Names', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
@@ -31005,7 +31005,7 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Family', 'xref_Species_Alternate_Names.Species_ID', 'xref_Species_Alternate_Names.Alternate_Name', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'xref_Species_Alternate_Names.Alternate_Name', 'xref_Species_Alternate_Names.Species_ID'}</t>
         </is>
       </c>
       <c r="S382" t="inlineStr">
@@ -31165,7 +31165,7 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Stations_UTMs.X_final', 'tbl_Stations.Station', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations_UTMs.Y_final'}</t>
+          <t>{'tbl_Stations_UTMs.X_final', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_UTMs.Y_final'}</t>
         </is>
       </c>
       <c r="S384" t="inlineStr">
@@ -31245,7 +31245,7 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Organization', 'tlu_Contacts.Position_Title'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
         </is>
       </c>
       <c r="S385" t="inlineStr">
@@ -31310,7 +31310,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID', 'tbl_Locations.Island', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S386" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="S387" t="inlineStr">
@@ -31485,7 +31485,7 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tlu_Species.Family', 'tlu_Species.Habitat', 'tlu_Species.Scientific_Name'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Family', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="S388" t="inlineStr">
@@ -31575,7 +31575,7 @@
       </c>
       <c r="T389" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Geo_Datum', 'tbl_Stations.Station_ID'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Stations.Geo_Datum'}</t>
         </is>
       </c>
       <c r="U389" t="n">
@@ -31630,7 +31630,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Observations'}</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
@@ -31645,7 +31645,7 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Event_ID', 'tbl_Event_Details.Cloud', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Cloud', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S390" t="inlineStr">
@@ -31805,7 +31805,7 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Stations.Transect_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S392" t="inlineStr">
@@ -31842,60 +31842,60 @@
         <v>3908</v>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L393" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N393" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Transect'}</t>
         </is>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Locations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Island', 'tbl_Stations.Transect_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID'}</t>
         </is>
       </c>
       <c r="T393" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Island'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U393" t="n">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tbl_Event_Details', 'tlu_Species'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
@@ -31965,12 +31965,12 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Family', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Event_ID', 'tlu_Species.Species_Code'}</t>
+          <t>{'tlu_Species.Family', 'tlu_Species.Species_Code', 'tbl_Event_Details.Rain', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="S394" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="T394" t="inlineStr">
@@ -32030,7 +32030,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'xref_Event_Contacts', 'tlu_Contacts'}</t>
+          <t>{'tlu_Contacts', 'tbl_Observations', 'xref_Event_Contacts', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
@@ -32045,7 +32045,7 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tbl_Observations.Species_ID', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Species.Common_Name', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Species.Scientific_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S395" t="inlineStr">
@@ -32110,7 +32110,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Observations', 'tlu_Species', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P396" t="inlineStr">
@@ -32125,7 +32125,7 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Events.Event_ID', 'tbl_Stations.Station', 'tbl_Observations.Event_ID', 'tlu_Species.Common_Name', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S396" t="inlineStr">
@@ -32190,7 +32190,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Stations'}</t>
         </is>
       </c>
       <c r="P397" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S397" t="inlineStr">
@@ -32242,35 +32242,35 @@
         <v>3364</v>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G398" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M398" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N398" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations'}</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
@@ -32280,12 +32280,12 @@
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations.Lat_final', 'tbl_Stations.Long_final', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S398" t="inlineStr">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="T398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Long_final', 'tbl_Stations.Long_Dir', 'tbl_Stations.Station', 'tbl_Stations.Lat_final', 'tbl_Stations.Lat_Dir'}</t>
+          <t>{'tbl_Stations.Lat_Dir', 'tbl_Stations.Long_Dir'}</t>
         </is>
       </c>
       <c r="U398" t="n">
@@ -32350,7 +32350,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P399" t="inlineStr">
@@ -32365,7 +32365,7 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Common_Name', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S399" t="inlineStr">
@@ -32430,7 +32430,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Observations', 'tlu_Species', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P400" t="inlineStr">
@@ -32445,7 +32445,7 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S400" t="inlineStr">
@@ -32510,7 +32510,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts', 'tlu_Contacts'}</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P401" t="inlineStr">
@@ -32525,7 +32525,7 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S401" t="inlineStr">
@@ -32590,7 +32590,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Habitat'}</t>
+          <t>{'tbl_Habitat', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P402" t="inlineStr">
@@ -32605,7 +32605,7 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Habitat.Event_ID', 'tlu_Species.Common_Name', 'tbl_Habitat.Canopy_Height'}</t>
+          <t>{'tlu_Species.Scientific_Name', 'tlu_Species.Common_Name', 'tbl_Habitat.Event_ID', 'tlu_Species.Species_ID', 'tbl_Habitat.Canopy_Height', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S402" t="inlineStr">
@@ -32670,7 +32670,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'xref_Species_Alternate_Names', 'tbl_Observations', 'tbl_Transect', 'tbl_Stations', 'tbl_Sites', 'xref_Event_Contacts', 'tlu_Contacts', 'tlu_Species', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'xref_Species_Alternate_Names', 'tlu_Species', 'tbl_Locations', 'tbl_Transect', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>{'tbl_Transect.Location_ID', 'tlu_Species.Scientific_Name', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tbl_Transect.Transect_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'xref_Species_Alternate_Names.Alternate_Name', 'tlu_Species.Species_ID', 'tbl_Sites.Site_ID', 'tlu_Contacts.Contact_ID', 'tbl_Stations.Transect_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Last_Name', 'tlu_Species.Family', 'tbl_Locations.Loc_Name', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Locations.Site_ID', 'tbl_Stations.Station', 'tbl_Locations.Location_ID', 'tbl_Stations.Lat_final', 'tbl_Observations.Event_ID', 'tbl_Transect.Transect_Type', 'tbl_Locations.Island', 'xref_Event_Contacts.Contact_ID', 'tbl_Transect.Transect', 'tbl_Events.Station_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tbl_Transect.Transect', 'tlu_Species.Common_Name', 'tbl_Locations.Island', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Sites.Site_Name', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Events.Station_ID', 'tbl_Transect.Transect_Type', 'tbl_Stations.Lat_final', 'tbl_Transect.Transect_ID', 'tbl_Stations.Transect_ID', 'tbl_Locations.Site_ID', 'tlu_Contacts.Last_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Sites.Site_ID', 'tlu_Species.Scientific_Name', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Transect.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S403" t="inlineStr">
@@ -32722,60 +32722,60 @@
         <v>4898</v>
       </c>
       <c r="F404" t="n">
-        <v>0</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="G404" t="n">
-        <v>0</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="I404" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="J404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K404" t="n">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L404" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M404" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N404" t="n">
-        <v>0</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tlu_Species', 'tbl_Locations', 'tbl_Stations', 'tbl_Observations'}</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Locations', 'tbl_Observations', 'tlu_Species', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tbl_Locations.Island', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Stations.Transect_ID'}</t>
         </is>
       </c>
       <c r="S404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tbl_Locations.Location_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID', 'xref_Event_Contacts.Contact_ID'}</t>
         </is>
       </c>
       <c r="T404" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Site_ID', 'tbl_Locations.Island', 'tlu_Species.Common_Name', 'tbl_Stations.Transect_ID', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="U404" t="n">
@@ -32915,7 +32915,7 @@
       </c>
       <c r="P406" t="inlineStr">
         <is>
-          <t>{'OPEX', 'OUDP'}</t>
+          <t>{'OUDP', 'OPEX'}</t>
         </is>
       </c>
       <c r="Q406" t="inlineStr">
@@ -32930,12 +32930,12 @@
       </c>
       <c r="S406" t="inlineStr">
         <is>
-          <t>{'OPEX.PayeeState', 'OPEX.Department', 'OUDP.Code', 'OPEX.PayeeName', 'OPEX.PayCountry', 'OUDP.Name', 'OPEX.PayeeCity', 'OPEX.PayeeStree', 'OPEX.PayeeZip'}</t>
+          <t>{'OPEX.Department', 'OPEX.PayeeStree', 'OPEX.PayeeName', 'OPEX.PayeeZip', 'OPEX.PayeeCity', 'OPEX.PayCountry', 'OUDP.Code', 'OPEX.PayeeState', 'OUDP.Name'}</t>
         </is>
       </c>
       <c r="T406" t="inlineStr">
         <is>
-          <t>{'OHEM.homeZip', 'OHEM.dept', 'OHEM.lastName', 'OHEM.homeStreet', 'OHEM.homeState', 'OHEM.homeCountr', 'OHEM.homeCity', 'OHEM.firstName'}</t>
+          <t>{'OHEM.homeCountr', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.dept', 'OHEM.homeCity', 'OHEM.homeZip', 'OHEM.homeStreet', 'OHEM.homeState'}</t>
         </is>
       </c>
       <c r="U406" t="n">
@@ -32995,7 +32995,7 @@
       </c>
       <c r="P407" t="inlineStr">
         <is>
-          <t>{'CHO1', 'OCHO'}</t>
+          <t>{'OCHO', 'CHO1'}</t>
         </is>
       </c>
       <c r="Q407" t="inlineStr">
@@ -33010,12 +33010,12 @@
       </c>
       <c r="S407" t="inlineStr">
         <is>
-          <t>{'OCHO.CheckKey', 'OCHO.AcctNum', 'CHO1.CheckKey'}</t>
+          <t>{'CHO1.CheckKey', 'OCHO.AcctNum', 'OCHO.CheckKey'}</t>
         </is>
       </c>
       <c r="T407" t="inlineStr">
         <is>
-          <t>{'PDF1.AcctNum', 'PDF1.CheckNum'}</t>
+          <t>{'PDF1.CheckNum', 'PDF1.AcctNum'}</t>
         </is>
       </c>
       <c r="U407" t="n">
@@ -33095,7 +33095,7 @@
       </c>
       <c r="T408" t="inlineStr">
         <is>
-          <t>{'WTC2.DocEntry', 'WTC2.WTBaseAmnt', 'VPM1.DocEntry', 'WTC2.WTPercent', 'VPM1.AcctNum'}</t>
+          <t>{'VPM1.AcctNum', 'WTC2.WTBaseAmnt', 'VPM1.DocEntry', 'WTC2.WTPercent', 'WTC2.DocEntry'}</t>
         </is>
       </c>
       <c r="U408" t="n">
@@ -33170,12 +33170,12 @@
       </c>
       <c r="S409" t="inlineStr">
         <is>
-          <t>{'ORCT.CreateDate', 'ORCT.DocCurr', 'ORCT.CardCode', 'ORCT.Address', 'ORCT.TrsfrSumFC', 'ORCT.CardName'}</t>
+          <t>{'ORCT.TrsfrSumFC', 'ORCT.CardCode', 'ORCT.CreateDate', 'ORCT.DocCurr', 'ORCT.Address', 'ORCT.CardName'}</t>
         </is>
       </c>
       <c r="T409" t="inlineStr">
         <is>
-          <t>{'OPDF.DocCurr', 'OPDF.CardCode', 'OPDF.CreateDate', 'OPDF.TrsfrSumFC', 'OPDF.Address', 'OPDF.CardName'}</t>
+          <t>{'OPDF.CardName', 'OPDF.TrsfrSumFC', 'OPDF.Address', 'OPDF.DocCurr', 'OPDF.CardCode', 'OPDF.CreateDate'}</t>
         </is>
       </c>
       <c r="U409" t="n">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="P410" t="inlineStr">
         <is>
-          <t>{'ORCT', 'RCT1'}</t>
+          <t>{'RCT1', 'ORCT'}</t>
         </is>
       </c>
       <c r="Q410" t="inlineStr">
@@ -33250,12 +33250,12 @@
       </c>
       <c r="S410" t="inlineStr">
         <is>
-          <t>{'RCT1.CountryCod', 'RCT1.DocNum', 'ORCT.CheckSumFC', 'ORCT.DocNum', 'ORCT.WTOnhldPst', 'RCT1.AcctNum'}</t>
+          <t>{'ORCT.CheckSumFC', 'ORCT.WTOnhldPst', 'RCT1.AcctNum', 'RCT1.CountryCod', 'ORCT.DocNum', 'RCT1.DocNum'}</t>
         </is>
       </c>
       <c r="T410" t="inlineStr">
         <is>
-          <t>{'WTC2.DocEntry', 'OCHH.CheckSum', 'WTC2.WTAccAmnt', 'OCHH.AcctNum', 'OCHH.CountryCod', 'OCHH.CheckKey'}</t>
+          <t>{'OCHH.CountryCod', 'OCHH.CheckSum', 'WTC2.DocEntry', 'OCHH.AcctNum', 'OCHH.CheckKey', 'WTC2.WTAccAmnt'}</t>
         </is>
       </c>
       <c r="U410" t="n">
@@ -33320,7 +33320,7 @@
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>{'OPCH', 'PDF4'}</t>
+          <t>{'PDF4', 'OPCH'}</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33335,7 +33335,7 @@
       </c>
       <c r="T411" t="inlineStr">
         <is>
-          <t>{'OPCH.DocNum', 'PDF4.VatAmnt', 'PDF4.DocNum'}</t>
+          <t>{'PDF4.DocNum', 'PDF4.VatAmnt', 'OPCH.DocNum'}</t>
         </is>
       </c>
       <c r="U411" t="n">
@@ -33395,12 +33395,12 @@
       </c>
       <c r="P412" t="inlineStr">
         <is>
-          <t>{'ORCT', 'RCT3'}</t>
+          <t>{'RCT3', 'ORCT'}</t>
         </is>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>{'VPM4', 'OCRV'}</t>
+          <t>{'OCRV', 'VPM4'}</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33410,12 +33410,12 @@
       </c>
       <c r="S412" t="inlineStr">
         <is>
-          <t>{'RCT3.DocNum', 'RCT3.FirstSum', 'ORCT.DocNum'}</t>
+          <t>{'RCT3.DocNum', 'ORCT.DocNum', 'RCT3.FirstSum'}</t>
         </is>
       </c>
       <c r="T412" t="inlineStr">
         <is>
-          <t>{'OCRV.PayId', 'OCRV.VoucherNum', 'VPM4.LineId', 'VPM4.DocNum', 'VPM4.SumApplied'}</t>
+          <t>{'VPM4.DocNum', 'VPM4.SumApplied', 'OCRV.PayId', 'VPM4.LineId', 'OCRV.VoucherNum'}</t>
         </is>
       </c>
       <c r="U412" t="n">
@@ -33480,7 +33480,7 @@
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>{'ODPS', 'OCRV'}</t>
+          <t>{'OCRV', 'ODPS'}</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33490,12 +33490,12 @@
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t>{'OCRH.DeposDate', 'OCRH.CardCode', 'OCRH.RctAbs', 'OCRH.DepNum'}</t>
+          <t>{'OCRH.RctAbs', 'OCRH.CardCode', 'OCRH.DepNum', 'OCRH.DeposDate'}</t>
         </is>
       </c>
       <c r="T413" t="inlineStr">
         <is>
-          <t>{'ODPS.IsCard', 'OCRV.PayId', 'ODPS.DeposDate', 'ODPS.DeposNum', 'OCRV.DepNum', 'OCRV.AcctCode'}</t>
+          <t>{'ODPS.DeposDate', 'OCRV.PayId', 'ODPS.IsCard', 'ODPS.DeposNum', 'OCRV.DepNum', 'OCRV.AcctCode'}</t>
         </is>
       </c>
       <c r="U413" t="n">
@@ -33565,7 +33565,7 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>{'OCTG.VATFirst', 'OCTG.InstNum', 'OCTG.PymntGroup', 'OCTG.ExtraDays'}</t>
+          <t>{'OCTG.InstNum', 'OCTG.VATFirst', 'OCTG.ExtraDays', 'OCTG.PymntGroup'}</t>
         </is>
       </c>
       <c r="S414" t="inlineStr">
@@ -33635,7 +33635,7 @@
       </c>
       <c r="P415" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OCRG'}</t>
+          <t>{'OCRG', 'OCRD'}</t>
         </is>
       </c>
       <c r="Q415" t="inlineStr">
@@ -33655,7 +33655,7 @@
       </c>
       <c r="T415" t="inlineStr">
         <is>
-          <t>{'OPSG.GroupCode', 'OGAR.BPGrpCod', 'OPSG.GroupName', 'OGAR.CardCode'}</t>
+          <t>{'OGAR.BPGrpCod', 'OGAR.CardCode', 'OPSG.GroupName', 'OPSG.GroupCode'}</t>
         </is>
       </c>
       <c r="U415" t="n">
@@ -33730,12 +33730,12 @@
       </c>
       <c r="S416" t="inlineStr">
         <is>
-          <t>{'OCPR.Name', 'OCPR.Position', 'OCPR.E_MailL', 'OCPR.Address', 'OCPR.Cellolar'}</t>
+          <t>{'OCPR.Position', 'OCPR.Cellolar', 'OCPR.E_MailL', 'OCPR.Name', 'OCPR.Address'}</t>
         </is>
       </c>
       <c r="T416" t="inlineStr">
         <is>
-          <t>{'OHEM.workStreet', 'OHEM.mobile', 'OHEM.empID', 'OHEM.middleName', 'OHEM.workZip', 'OHEM.workCity', 'AHE4.position', 'AHE4.fromDate', 'AHE4.empID', 'AHE4.toDate', 'OHEM.workBlock', 'OHEM.lastName', 'OHEM.email', 'OHEM.workState', 'OHEM.firstName'}</t>
+          <t>{'OHEM.workStreet', 'OHEM.email', 'OHEM.workBlock', 'OHEM.lastName', 'OHEM.empID', 'AHE4.empID', 'OHEM.workZip', 'OHEM.firstName', 'OHEM.middleName', 'OHEM.workCity', 'OHEM.mobile', 'AHE4.fromDate', 'AHE4.toDate', 'OHEM.workState', 'AHE4.position'}</t>
         </is>
       </c>
       <c r="U416" t="n">
@@ -33870,7 +33870,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>{'OSLP', 'OCOG'}</t>
+          <t>{'OCOG', 'OSLP'}</t>
         </is>
       </c>
       <c r="P418" t="inlineStr">
@@ -33885,7 +33885,7 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>{'OSLP.SlpName', 'OSLP.GroupCode', 'OCOG.GroupCode'}</t>
+          <t>{'OSLP.GroupCode', 'OCOG.GroupCode', 'OSLP.SlpName'}</t>
         </is>
       </c>
       <c r="S418" t="inlineStr">
@@ -33950,7 +33950,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>{'OSLP', 'OCOG'}</t>
+          <t>{'OCOG', 'OSLP'}</t>
         </is>
       </c>
       <c r="P419" t="inlineStr">
@@ -33970,12 +33970,12 @@
       </c>
       <c r="S419" t="inlineStr">
         <is>
-          <t>{'OSLP.Mobil', 'OSLP.Email', 'OSLP.SlpName', 'OCOG.GroupName'}</t>
+          <t>{'OSLP.Mobil', 'OCOG.GroupName', 'OSLP.Email', 'OSLP.SlpName'}</t>
         </is>
       </c>
       <c r="T419" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'OHEM.mobile', 'OCOG.Commission', 'OHEM.lastName', 'OHEM.email', 'OSLP.EmpID', 'OHEM.firstName'}</t>
+          <t>{'OHEM.email', 'OHEM.lastName', 'OHEM.empID', 'OHEM.firstName', 'OSLP.EmpID', 'OCOG.Commission', 'OHEM.mobile'}</t>
         </is>
       </c>
       <c r="U419" t="n">
@@ -34045,7 +34045,7 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>{'OCRD.CardCode', 'OCRD.PymCode'}</t>
+          <t>{'OCRD.PymCode', 'OCRD.CardCode'}</t>
         </is>
       </c>
       <c r="S420" t="inlineStr">
@@ -34055,7 +34055,7 @@
       </c>
       <c r="T420" t="inlineStr">
         <is>
-          <t>{'OCRD.TaxIdIdent', 'CRD9.CardCode', 'CRD9.ISStatProc'}</t>
+          <t>{'OCRD.TaxIdIdent', 'CRD9.ISStatProc', 'CRD9.CardCode'}</t>
         </is>
       </c>
       <c r="U420" t="n">
@@ -34125,7 +34125,7 @@
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>{'OCLG.ClgCode', 'OCLG.Details', 'OCLG.CntctTime', 'OCLG.CreateDate', 'OCLG.CntctDate'}</t>
+          <t>{'OCLG.CntctDate', 'OCLG.CreateDate', 'OCLG.Details', 'OCLG.ClgCode', 'OCLG.CntctTime'}</t>
         </is>
       </c>
       <c r="S421" t="inlineStr">
@@ -34210,12 +34210,12 @@
       </c>
       <c r="S422" t="inlineStr">
         <is>
-          <t>{'OCRB.Branch', 'OCRB.BankCode', 'OCRB.CardCode', 'OCRB.Account', 'OCRD.BankCode', 'OCRD.City', 'OCRD.Country', 'OCRB.Country', 'OCRB.City'}</t>
+          <t>{'OCRB.BankCode', 'OCRB.CardCode', 'OCRB.Country', 'OCRD.BankCode', 'OCRB.Branch', 'OCRD.City', 'OCRB.City', 'OCRD.Country', 'OCRB.Account'}</t>
         </is>
       </c>
       <c r="T422" t="inlineStr">
         <is>
-          <t>{'ACRB.Branch', 'ACRB.City', 'ACRB.BankCode', 'ACRB.Country', 'ACRB.Account'}</t>
+          <t>{'ACRB.Account', 'ACRB.BankCode', 'ACRB.City', 'ACRB.Branch', 'ACRB.Country'}</t>
         </is>
       </c>
       <c r="U422" t="n">
@@ -34285,7 +34285,7 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>{'OCRD.Currency', 'OCRD.Balance'}</t>
+          <t>{'OCRD.Balance', 'OCRD.Currency'}</t>
         </is>
       </c>
       <c r="S423" t="inlineStr">
@@ -34295,7 +34295,7 @@
       </c>
       <c r="T423" t="inlineStr">
         <is>
-          <t>{'CRDC.CardCode', 'CRDC.CommMeanId', 'OCRD.CardCode'}</t>
+          <t>{'CRDC.CommMeanId', 'OCRD.CardCode', 'CRDC.CardCode'}</t>
         </is>
       </c>
       <c r="U423" t="n">
@@ -34365,17 +34365,17 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>{'OTGG.TargetCode', 'OTGG.TargetType'}</t>
+          <t>{'OTGG.TargetType', 'OTGG.TargetCode'}</t>
         </is>
       </c>
       <c r="S424" t="inlineStr">
         <is>
-          <t>{'TGG1.TargetCode', 'TGG1.Position', 'TGG1.LicTradNum', 'TGG1.E_Mail'}</t>
+          <t>{'TGG1.Position', 'TGG1.LicTradNum', 'TGG1.E_Mail', 'TGG1.TargetCode'}</t>
         </is>
       </c>
       <c r="T424" t="inlineStr">
         <is>
-          <t>{'OTBP.E_Mail', 'ACRD.CardCode', 'OTBP.CardCode', 'OTBP.Position', 'ACRD.VatIDNum'}</t>
+          <t>{'ACRD.VatIDNum', 'OTBP.E_Mail', 'OTBP.CardCode', 'OTBP.Position', 'ACRD.CardCode'}</t>
         </is>
       </c>
       <c r="U424" t="n">
@@ -34430,7 +34430,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>{'OACT', 'JDT1'}</t>
+          <t>{'JDT1', 'OACT'}</t>
         </is>
       </c>
       <c r="P425" t="inlineStr">
@@ -34445,7 +34445,7 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>{'OACT.AcctName', 'OACT.AcctCode', 'JDT1.Account'}</t>
+          <t>{'JDT1.Account', 'OACT.AcctName', 'OACT.AcctCode'}</t>
         </is>
       </c>
       <c r="S425" t="inlineStr">
@@ -34525,7 +34525,7 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>{'JDT1.Credit', 'JDT1.DueDate', 'JDT1.Debit'}</t>
+          <t>{'JDT1.Debit', 'JDT1.Credit', 'JDT1.DueDate'}</t>
         </is>
       </c>
       <c r="S426" t="inlineStr">
@@ -34600,7 +34600,7 @@
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>{'BGT2', 'OBGS'}</t>
+          <t>{'OBGS', 'BGT2'}</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34610,12 +34610,12 @@
       </c>
       <c r="S427" t="inlineStr">
         <is>
-          <t>{'BGT1.CredLTotal', 'OACT.AcctCode', 'BGT1.AcctCode', 'OACT.AcctName', 'BGT1.DebLTotal'}</t>
+          <t>{'OACT.AcctCode', 'BGT1.DebLTotal', 'BGT1.AcctCode', 'BGT1.CredLTotal', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="T427" t="inlineStr">
         <is>
-          <t>{'OBGS.Name', 'BGT2.DimCode', 'OBGS.OcrCode', 'BGT2.OcrCode', 'BGT2.DebLTotal', 'BGT2.CredLTotal'}</t>
+          <t>{'OBGS.OcrCode', 'BGT2.DebLTotal', 'BGT2.OcrCode', 'BGT2.DimCode', 'BGT2.CredLTotal', 'OBGS.Name'}</t>
         </is>
       </c>
       <c r="U427" t="n">
@@ -34685,17 +34685,17 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>{'OACT.AcctName', 'OACT.CurrTotal'}</t>
+          <t>{'OACT.CurrTotal', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="S428" t="inlineStr">
         <is>
-          <t>{'OACG.AbsId', 'OACG.Name', 'OACT.Category'}</t>
+          <t>{'OACT.Category', 'OACG.AbsId', 'OACG.Name'}</t>
         </is>
       </c>
       <c r="T428" t="inlineStr">
         <is>
-          <t>{'OPRA.Account', 'OACT.AcctCode', 'OPRA.Category'}</t>
+          <t>{'OPRA.Account', 'OPRA.Category', 'OACT.AcctCode'}</t>
         </is>
       </c>
       <c r="U428" t="n">
@@ -34755,7 +34755,7 @@
       </c>
       <c r="P429" t="inlineStr">
         <is>
-          <t>{'OTAX', 'TAX1'}</t>
+          <t>{'TAX1', 'OTAX'}</t>
         </is>
       </c>
       <c r="Q429" t="inlineStr">
@@ -34770,12 +34770,12 @@
       </c>
       <c r="S429" t="inlineStr">
         <is>
-          <t>{'TAX1.VatSum', 'TAX1.VatPercent', 'OTAX.AbsEntry', 'OTAX.SrcObjAbs', 'TAX1.AbsEntry', 'TAX1.TaxCode'}</t>
+          <t>{'TAX1.VatPercent', 'OTAX.AbsEntry', 'TAX1.VatSum', 'TAX1.AbsEntry', 'TAX1.TaxCode', 'OTAX.SrcObjAbs'}</t>
         </is>
       </c>
       <c r="T429" t="inlineStr">
         <is>
-          <t>{'RPC11.ObjType', 'RPC11.TaxCode', 'RPC11.VatSum', 'RPC11.VatPrcnt'}</t>
+          <t>{'RPC11.VatPrcnt', 'RPC11.ObjType', 'RPC11.VatSum', 'RPC11.TaxCode'}</t>
         </is>
       </c>
       <c r="U429" t="n">
@@ -34840,7 +34840,7 @@
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>{'ORTT', 'ARTS', 'ARTT'}</t>
+          <t>{'ARTT', 'ARTS', 'ORTT'}</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34855,7 +34855,7 @@
       </c>
       <c r="T430" t="inlineStr">
         <is>
-          <t>{'ARTT.RateDate', 'ARTT.Currency', 'ARTS.Currency', 'ARTT.DataSource', 'ORTT.Rate', 'ARTS.Rate', 'ORTT.RateDate', 'ARTS.DataSource', 'ORTT.DataSource', 'ARTS.RateDate', 'ORTT.Currency', 'ARTT.Rate'}</t>
+          <t>{'ARTT.DataSource', 'ORTT.Currency', 'ORTT.DataSource', 'ARTS.DataSource', 'ORTT.RateDate', 'ORTT.Rate', 'ARTT.RateDate', 'ARTS.Currency', 'ARTT.Rate', 'ARTS.RateDate', 'ARTT.Currency', 'ARTS.Rate'}</t>
         </is>
       </c>
       <c r="U430" t="n">
@@ -35085,17 +35085,17 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>{'OFRC.Name', 'OFRC.CatId'}</t>
+          <t>{'OFRC.CatId', 'OFRC.Name'}</t>
         </is>
       </c>
       <c r="S433" t="inlineStr">
         <is>
-          <t>{'FRC1.CalMethod2', 'FRC1.CFWId', 'FRC1.CatId', 'FRC1.CalcMethod', 'FRC1.CalMethod3'}</t>
+          <t>{'FRC1.CFWId', 'FRC1.CalMethod2', 'FRC1.CalcMethod', 'FRC1.CalMethod3', 'FRC1.CatId'}</t>
         </is>
       </c>
       <c r="T433" t="inlineStr">
         <is>
-          <t>{'KPI3.FldMethod', 'OTSC.Category', 'OTSC.ID', 'OFRC.CatClass'}</t>
+          <t>{'OFRC.CatClass', 'OTSC.Category', 'OTSC.ID', 'KPI3.FldMethod'}</t>
         </is>
       </c>
       <c r="U433" t="n">
@@ -35170,12 +35170,12 @@
       </c>
       <c r="S434" t="inlineStr">
         <is>
-          <t>{'OPRJ.PrjCode', 'OPRJ.ValidFrom', 'OPRJ.PrjName'}</t>
+          <t>{'OPRJ.PrjCode', 'OPRJ.PrjName', 'OPRJ.ValidFrom'}</t>
         </is>
       </c>
       <c r="T434" t="inlineStr">
         <is>
-          <t>{'APRJ.PrjName', 'APRJ.PrjCode', 'APRJ.ValidTo'}</t>
+          <t>{'APRJ.ValidTo', 'APRJ.PrjName', 'APRJ.PrjCode'}</t>
         </is>
       </c>
       <c r="U434" t="n">
@@ -35240,7 +35240,7 @@
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>{'APM1', 'PMC2'}</t>
+          <t>{'PMC2', 'APM1'}</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35250,12 +35250,12 @@
       </c>
       <c r="S435" t="inlineStr">
         <is>
-          <t>{'PMG1.EXPCOSTS', 'PMG1.START', 'PMG1.DSCRIPTION'}</t>
+          <t>{'PMG1.START', 'PMG1.EXPCOSTS', 'PMG1.DSCRIPTION'}</t>
         </is>
       </c>
       <c r="T435" t="inlineStr">
         <is>
-          <t>{'PMC2.Dscription', 'APM1.EXPCOSTS', 'APM1.START', 'APM1.StageID', 'PMC2.StageID'}</t>
+          <t>{'APM1.StageID', 'APM1.START', 'APM1.EXPCOSTS', 'PMC2.Dscription', 'PMC2.StageID'}</t>
         </is>
       </c>
       <c r="U435" t="n">
@@ -35405,7 +35405,7 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>{'ODAB.AbsEntry', 'ODAB.DashbdCode'}</t>
+          <t>{'ODAB.DashbdCode', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="S437" t="inlineStr">
@@ -35485,7 +35485,7 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>{'ODAB.DashbdPath', 'ODAB.Status', 'ODAB.DashbdName', 'DAB1.QryCtgry', 'DAB1.QryName', 'DAB1.DsbEntry'}</t>
+          <t>{'ODAB.Status', 'ODAB.DashbdName', 'DAB1.QryCtgry', 'DAB1.QryName', 'ODAB.DashbdPath', 'DAB1.DsbEntry'}</t>
         </is>
       </c>
       <c r="S438" t="inlineStr">
@@ -35565,7 +35565,7 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>{'OKPS.FieldsNum', 'OKPS.KpsName', 'OKPS.KpsCode', 'OKPS.KpsType'}</t>
+          <t>{'OKPS.KpsName', 'OKPS.FieldsNum', 'OKPS.KpsCode', 'OKPS.KpsType'}</t>
         </is>
       </c>
       <c r="S439" t="inlineStr">
@@ -35635,7 +35635,7 @@
       </c>
       <c r="P440" t="inlineStr">
         <is>
-          <t>{'ORSC', 'RSC4'}</t>
+          <t>{'RSC4', 'ORSC'}</t>
         </is>
       </c>
       <c r="Q440" t="inlineStr">
@@ -35650,12 +35650,12 @@
       </c>
       <c r="S440" t="inlineStr">
         <is>
-          <t>{'ORSC.ResCode', 'ORSC.ResGrpCod', 'ORSC.ResType', 'ORSC.StdCost1', 'RSC4.ResCode', 'ORSC.ResName', 'RSC4.EmpID'}</t>
+          <t>{'ORSC.ResType', 'ORSC.StdCost1', 'ORSC.ResGrpCod', 'ORSC.ResName', 'ORSC.ResCode', 'RSC4.ResCode', 'RSC4.EmpID'}</t>
         </is>
       </c>
       <c r="T440" t="inlineStr">
         <is>
-          <t>{'ARSC.ResName', 'ARSC.ResGrpCod', 'ARSC.StdCost1', 'ARSC.ResCode', 'HEM10.empID', 'HEM10.BPLId', 'ARSC.ResType'}</t>
+          <t>{'ARSC.StdCost1', 'HEM10.BPLId', 'ARSC.ResType', 'ARSC.ResName', 'ARSC.ResGrpCod', 'HEM10.empID', 'ARSC.ResCode'}</t>
         </is>
       </c>
       <c r="U440" t="n">
@@ -35725,12 +35725,12 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>{'ORSC.ResCode', 'ORSC.ResName'}</t>
+          <t>{'ORSC.ResName', 'ORSC.ResCode'}</t>
         </is>
       </c>
       <c r="S441" t="inlineStr">
         <is>
-          <t>{'RSC6.CapFactor1', 'RSC6.WeekDay', 'RSC6.ResCode'}</t>
+          <t>{'RSC6.ResCode', 'RSC6.WeekDay', 'RSC6.CapFactor1'}</t>
         </is>
       </c>
       <c r="T441" t="inlineStr">
@@ -35805,17 +35805,17 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>{'PMG2.REMARKS', 'PMG2.SOLUTION'}</t>
+          <t>{'PMG2.SOLUTION', 'PMG2.REMARKS'}</t>
         </is>
       </c>
       <c r="S442" t="inlineStr">
         <is>
-          <t>{'OPMG.NAME', 'OPMG.AbsEntry', 'PMG2.AbsEntry'}</t>
+          <t>{'OPMG.AbsEntry', 'OPMG.NAME', 'PMG2.AbsEntry'}</t>
         </is>
       </c>
       <c r="T442" t="inlineStr">
         <is>
-          <t>{'OPRJ.PrjCode', 'PMG2.AREA', 'PMG2.CLOSED', 'OPRJ.PrjName'}</t>
+          <t>{'PMG2.CLOSED', 'PMG2.AREA', 'OPRJ.PrjCode', 'OPRJ.PrjName'}</t>
         </is>
       </c>
       <c r="U442" t="n">
@@ -35885,7 +35885,7 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>{'CPT1._Right', 'OCPT.Name', 'CPT1._Left', 'OCPT.AbsEntry', 'CPT1._Top', 'CPT1._Bottom', 'CPT1.AbsEntry'}</t>
+          <t>{'CPT1._Left', 'CPT1._Bottom', 'CPT1.AbsEntry', 'OCPT.AbsEntry', 'CPT1._Right', 'OCPT.Name', 'CPT1._Top'}</t>
         </is>
       </c>
       <c r="S443" t="inlineStr">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="P445" t="inlineStr">
         <is>
-          <t>{'OHTM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM'}</t>
         </is>
       </c>
       <c r="Q445" t="inlineStr">
@@ -36050,12 +36050,12 @@
       </c>
       <c r="S445" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.name', 'OHTM.teamID', 'HTM1.teamID'}</t>
+          <t>{'OHTM.teamID', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T445" t="inlineStr">
         <is>
-          <t>{'AHTM.teamID', 'AHT1.empID', 'AHT1.teamID', 'AHTM.name'}</t>
+          <t>{'AHT1.teamID', 'AHT1.empID', 'AHTM.name', 'AHTM.teamID'}</t>
         </is>
       </c>
       <c r="U445" t="n">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="P447" t="inlineStr">
         <is>
-          <t>{'OHEM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q447" t="inlineStr">
@@ -36205,17 +36205,17 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>{'OHTM.name', 'OHTM.teamID'}</t>
+          <t>{'OHTM.teamID', 'OHTM.name'}</t>
         </is>
       </c>
       <c r="S447" t="inlineStr">
         <is>
-          <t>{'OHEM.salary', 'HTM1.empID', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'OHEM.salary', 'OHEM.empID', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T447" t="inlineStr">
         <is>
-          <t>{'AHEM.salary', 'HEM5.empID', 'HEM5.Team', 'AHEM.empID'}</t>
+          <t>{'AHEM.empID', 'AHEM.salary', 'HEM5.empID', 'HEM5.Team'}</t>
         </is>
       </c>
       <c r="U447" t="n">
@@ -36285,7 +36285,7 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>{'OHEM.mobile', 'OHEM.officeTel', 'OHEM.lastName', 'OHEM.pager', 'OHEM.homeTel', 'OHEM.firstName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.firstName', 'OHEM.pager', 'OHEM.officeTel', 'OHEM.mobile', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="S448" t="inlineStr">
@@ -36370,7 +36370,7 @@
       </c>
       <c r="S449" t="inlineStr">
         <is>
-          <t>{'OHEM.SurnameSP', 'OHEM.FNameSP'}</t>
+          <t>{'OHEM.FNameSP', 'OHEM.SurnameSP'}</t>
         </is>
       </c>
       <c r="T449" t="inlineStr">
@@ -36445,12 +36445,12 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>{'OHEM.nChildren', 'OHEM.lastName', 'OHEM.type'}</t>
+          <t>{'OHEM.nChildren', 'OHEM.type', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="S450" t="inlineStr">
         <is>
-          <t>{'OHEM.StatusOfE', 'OHTY.name', 'OHTY.typeID'}</t>
+          <t>{'OHEM.StatusOfE', 'OHTY.typeID', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="T450" t="inlineStr">
@@ -36530,12 +36530,12 @@
       </c>
       <c r="S451" t="inlineStr">
         <is>
-          <t>{'OHTY.name', 'OHTY.typeID'}</t>
+          <t>{'OHTY.typeID', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="T451" t="inlineStr">
         <is>
-          <t>{'OVET.TypeName', 'OVET.typeID'}</t>
+          <t>{'OVET.typeID', 'OVET.TypeName'}</t>
         </is>
       </c>
       <c r="U451" t="n">
@@ -36610,12 +36610,12 @@
       </c>
       <c r="S452" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'OHEM.lastName', 'OHEM.HeaInsName', 'OHEM.HeaInsCode', 'OHEM.HeaInsType'}</t>
+          <t>{'OHEM.HeaInsCode', 'OHEM.HeaInsName', 'OHEM.lastName', 'OHEM.HeaInsType', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="T452" t="inlineStr">
         <is>
-          <t>{'AHEM.HeaInsType', 'AHEM.lastName', 'AHEM.HeaInsCode', 'AHEM.HeaInsName', 'AHEM.empID'}</t>
+          <t>{'AHEM.lastName', 'AHEM.empID', 'AHEM.HeaInsType', 'AHEM.HeaInsName', 'AHEM.HeaInsCode'}</t>
         </is>
       </c>
       <c r="U452" t="n">
@@ -36755,7 +36755,7 @@
       </c>
       <c r="P454" t="inlineStr">
         <is>
-          <t>{'OHEM', 'OHTM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q454" t="inlineStr">
@@ -36770,12 +36770,12 @@
       </c>
       <c r="S454" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHEM.empID', 'HTM1.teamID', 'OHTM.name', 'OHTM.teamID', 'OHEM.VacCurYear'}</t>
+          <t>{'OHTM.name', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID', 'HTM1.teamID', 'OHEM.VacCurYear'}</t>
         </is>
       </c>
       <c r="T454" t="inlineStr">
         <is>
-          <t>{'OCQG.GroupCode', 'AHE1.type', 'OCQG.GroupName', 'AHE1.toDate', 'OSLP.EmpID', 'AHE1.empID', 'OSLP.GroupCode', 'AHE1.fromDate'}</t>
+          <t>{'AHE1.toDate', 'OCQG.GroupCode', 'AHE1.fromDate', 'AHE1.type', 'OSLP.EmpID', 'OCQG.GroupName', 'OSLP.GroupCode', 'AHE1.empID'}</t>
         </is>
       </c>
       <c r="U454" t="n">
@@ -36835,12 +36835,12 @@
       </c>
       <c r="P455" t="inlineStr">
         <is>
-          <t>{'OHEM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>{'AHEM', 'AHT1'}</t>
+          <t>{'AHT1', 'AHEM'}</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36850,12 +36850,12 @@
       </c>
       <c r="S455" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHEM.empID', 'OHEM.CPF', 'HTM1.teamID'}</t>
+          <t>{'OHEM.empID', 'OHEM.CPF', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T455" t="inlineStr">
         <is>
-          <t>{'AHT1.empID', 'AHT1.teamID', 'AHEM.govID', 'AHEM.empID'}</t>
+          <t>{'AHT1.teamID', 'AHEM.empID', 'AHT1.empID', 'AHEM.govID'}</t>
         </is>
       </c>
       <c r="U455" t="n">
@@ -36925,17 +36925,17 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>{'OHEM.MunKey', 'OHEM.TaxClass', 'OHEM.type', 'OHEM.InTaxLiabi'}</t>
+          <t>{'OHEM.TaxClass', 'OHEM.type', 'OHEM.MunKey', 'OHEM.InTaxLiabi'}</t>
         </is>
       </c>
       <c r="S456" t="inlineStr">
         <is>
-          <t>{'OHTY.name', 'OHTY.typeID'}</t>
+          <t>{'OHTY.typeID', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="T456" t="inlineStr">
         <is>
-          <t>{'OHEM.jobTitle', 'OHEM.empID'}</t>
+          <t>{'OHEM.empID', 'OHEM.jobTitle'}</t>
         </is>
       </c>
       <c r="U456" t="n">
@@ -37010,7 +37010,7 @@
       </c>
       <c r="S457" t="inlineStr">
         <is>
-          <t>{'HEM6.roleID', 'HEM6.empID'}</t>
+          <t>{'HEM6.empID', 'HEM6.roleID'}</t>
         </is>
       </c>
       <c r="T457" t="inlineStr">
@@ -37085,7 +37085,7 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>{'OHEM.birthDate', 'OHEM.homeCounty', 'OHEM.jobTitle', 'OHEM.homeCountr', 'OHEM.homeCity', 'OHEM.brthCountr'}</t>
+          <t>{'OHEM.homeCountr', 'OHEM.jobTitle', 'OHEM.brthCountr', 'OHEM.homeCounty', 'OHEM.homeCity', 'OHEM.birthDate'}</t>
         </is>
       </c>
       <c r="S458" t="inlineStr">
@@ -37165,7 +37165,7 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>{'OHEM.passportNo', 'OHEM.lastName', 'OHEM.citizenshp'}</t>
+          <t>{'OHEM.lastName', 'OHEM.passportNo', 'OHEM.citizenshp'}</t>
         </is>
       </c>
       <c r="S459" t="inlineStr">
@@ -37245,7 +37245,7 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>{'OHEM.workCity', 'OHEM.lastName', 'OHEM.emplCost', 'OHEM.homeCity', 'OHEM.firstName'}</t>
+          <t>{'OHEM.emplCost', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.homeCity', 'OHEM.workCity'}</t>
         </is>
       </c>
       <c r="S460" t="inlineStr">
@@ -37310,7 +37310,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>{'OHEM', 'OHTM'}</t>
+          <t>{'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="P461" t="inlineStr">
@@ -37325,17 +37325,17 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>{'OHEM.MunKey', 'OHEM.workCity', 'OHEM.empID', 'OHEM.homeTel', 'OHTM.name', 'OHTM.teamID', 'OHEM.officeTel', 'OHEM.homeCity'}</t>
+          <t>{'OHTM.name', 'OHEM.empID', 'OHEM.MunKey', 'OHEM.homeCity', 'OHTM.teamID', 'OHEM.officeTel', 'OHEM.workCity', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="S461" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'HTM1.teamID'}</t>
+          <t>{'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T461" t="inlineStr">
         <is>
-          <t>{'AHT1.empID', 'AHT1.teamID'}</t>
+          <t>{'AHT1.teamID', 'AHT1.empID'}</t>
         </is>
       </c>
       <c r="U461" t="n">
@@ -37390,7 +37390,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>{'OHEM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHEM'}</t>
         </is>
       </c>
       <c r="P462" t="inlineStr">
@@ -37405,17 +37405,17 @@
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHEM.empID', 'HTM1.teamID', 'OHEM.StreetNoW', 'OHEM.StreetNoH'}</t>
+          <t>{'HTM1.empID', 'OHEM.empID', 'OHEM.StreetNoH', 'HTM1.teamID', 'OHEM.StreetNoW'}</t>
         </is>
       </c>
       <c r="S462" t="inlineStr">
         <is>
-          <t>{'OHEM.StatusOfP', 'OHTM.teamID', 'OHTM.name', 'OHEM.StatusOfE'}</t>
+          <t>{'OHTM.teamID', 'OHEM.StatusOfE', 'OHTM.name', 'OHEM.StatusOfP'}</t>
         </is>
       </c>
       <c r="T462" t="inlineStr">
         <is>
-          <t>{'AHE2.type', 'OHED.name', 'AHE2.empID', 'OHED.edType', 'OHEM.status'}</t>
+          <t>{'AHE2.type', 'OHED.edType', 'OHEM.status', 'OHED.name', 'AHE2.empID'}</t>
         </is>
       </c>
       <c r="U462" t="n">
@@ -37490,12 +37490,12 @@
       </c>
       <c r="S463" t="inlineStr">
         <is>
-          <t>{'OHEM.TaxOName', 'OHEM.ExemptCurr', 'OHEM.PymMeth', 'OHEM.AddiCurr'}</t>
+          <t>{'OHEM.ExemptCurr', 'OHEM.PymMeth', 'OHEM.TaxOName', 'OHEM.AddiCurr'}</t>
         </is>
       </c>
       <c r="T463" t="inlineStr">
         <is>
-          <t>{'AHEM.PymMeth', 'AHEM.AddiCurr', 'AHEM.ExemptCurr', 'AHEM.TaxOName'}</t>
+          <t>{'AHEM.ExemptCurr', 'AHEM.AddiCurr', 'AHEM.PymMeth', 'AHEM.TaxOName'}</t>
         </is>
       </c>
       <c r="U463" t="n">
@@ -37565,7 +37565,7 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>{'OHEM.homeZip', 'OHEM.lastName', 'OHEM.homeStreet', 'OHEM.homeBlock', 'OHEM.homeState', 'OHEM.martStatus'}</t>
+          <t>{'OHEM.lastName', 'OHEM.martStatus', 'OHEM.homeZip', 'OHEM.homeStreet', 'OHEM.homeBlock', 'OHEM.homeState'}</t>
         </is>
       </c>
       <c r="S464" t="inlineStr">
@@ -37645,7 +37645,7 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>{'OITM.OnHand', 'OITM.IsCommited', 'OITM.OnOrder', 'OITM.ItemName'}</t>
+          <t>{'OITM.OnOrder', 'OITM.OnHand', 'OITM.IsCommited', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="S465" t="inlineStr">
@@ -37730,12 +37730,12 @@
       </c>
       <c r="S466" t="inlineStr">
         <is>
-          <t>{'ITM1.Price', 'OITM.IsCommited', 'ITM1.ItemCode'}</t>
+          <t>{'ITM1.ItemCode', 'OITM.IsCommited', 'ITM1.Price'}</t>
         </is>
       </c>
       <c r="T466" t="inlineStr">
         <is>
-          <t>{'OSRQ.ItemCode', 'OITM.PricingPrc', 'OSRQ.CommitQty'}</t>
+          <t>{'OSRQ.CommitQty', 'OSRQ.ItemCode', 'OITM.PricingPrc'}</t>
         </is>
       </c>
       <c r="U466" t="n">
@@ -37805,7 +37805,7 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>{'ITM2.VendorCode', 'ITM2.ItemCode', 'OITM.LastPurPrc', 'OITM.ItemCode', 'OITM.ItemName', 'OITM.Consig'}</t>
+          <t>{'OITM.LastPurPrc', 'ITM2.VendorCode', 'ITM2.ItemCode', 'OITM.Consig', 'OITM.ItemName', 'OITM.ItemCode'}</t>
         </is>
       </c>
       <c r="S467" t="inlineStr">
@@ -37870,7 +37870,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>{'ITM4', 'OITM'}</t>
+          <t>{'OITM', 'ITM4'}</t>
         </is>
       </c>
       <c r="P468" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>{'ITM4.Volume', 'ITM4.Length1', 'OITM.ItemCode', 'ITM4.Width1', 'ITM4.ItemCode', 'ITM4.Height1', 'OITM.ItemName', 'ITM4.QtyPerPack'}</t>
+          <t>{'ITM4.Volume', 'ITM4.Length1', 'ITM4.Width1', 'ITM4.Height1', 'ITM4.QtyPerPack', 'OITM.ItemName', 'OITM.ItemCode', 'ITM4.ItemCode'}</t>
         </is>
       </c>
       <c r="S468" t="inlineStr">
@@ -37965,7 +37965,7 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>{'ITM7.DprArea', 'ITM7.RemainLife', 'ITM7.UsefulLife', 'ITM7.RemainDays'}</t>
+          <t>{'ITM7.DprArea', 'ITM7.UsefulLife', 'ITM7.RemainLife', 'ITM7.RemainDays'}</t>
         </is>
       </c>
       <c r="S469" t="inlineStr">
@@ -38045,7 +38045,7 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>{'OPKG.PkgType', 'OPKG.Volume'}</t>
+          <t>{'OPKG.Volume', 'OPKG.PkgType'}</t>
         </is>
       </c>
       <c r="S470" t="inlineStr">
@@ -38130,12 +38130,12 @@
       </c>
       <c r="S471" t="inlineStr">
         <is>
-          <t>{'OBCD.UomEntry', 'OBCD.BcdCode', 'OBCD.ItemCode'}</t>
+          <t>{'OBCD.UomEntry', 'OBCD.ItemCode', 'OBCD.BcdCode'}</t>
         </is>
       </c>
       <c r="T471" t="inlineStr">
         <is>
-          <t>{'ITM12.ItemCode', 'ITM12.UomEntry', 'OITM.CodeBars'}</t>
+          <t>{'ITM12.UomEntry', 'ITM12.ItemCode', 'OITM.CodeBars'}</t>
         </is>
       </c>
       <c r="U471" t="n">
@@ -38205,7 +38205,7 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>{'OBFC.Activated', 'OBFC.DataSource', 'OBFC.DispName', 'OBFC.UpdateDate'}</t>
+          <t>{'OBFC.Activated', 'OBFC.DispName', 'OBFC.DataSource', 'OBFC.UpdateDate'}</t>
         </is>
       </c>
       <c r="S472" t="inlineStr">
@@ -38295,7 +38295,7 @@
       </c>
       <c r="T473" t="inlineStr">
         <is>
-          <t>{'OITG.ItmsGrpNam', 'OITG.ItmsTypCod'}</t>
+          <t>{'OITG.ItmsTypCod', 'OITG.ItmsGrpNam'}</t>
         </is>
       </c>
       <c r="U473" t="n">
@@ -38355,7 +38355,7 @@
       </c>
       <c r="P474" t="inlineStr">
         <is>
-          <t>{'ITM4', 'OITB'}</t>
+          <t>{'OITB', 'ITM4'}</t>
         </is>
       </c>
       <c r="Q474" t="inlineStr">
@@ -38370,12 +38370,12 @@
       </c>
       <c r="S474" t="inlineStr">
         <is>
-          <t>{'ITM4.Volume', 'OITM.ItemCode', 'OITB.ItmsGrpCod', 'ITM4.ItemCode', 'OITB.ItmsGrpNam'}</t>
+          <t>{'ITM4.Volume', 'OITB.ItmsGrpNam', 'OITB.ItmsGrpCod', 'OITM.ItemCode', 'ITM4.ItemCode'}</t>
         </is>
       </c>
       <c r="T474" t="inlineStr">
         <is>
-          <t>{'OITG.ItmsGrpNam', 'OITM.SVolume', 'OITG.ItmsTypCod'}</t>
+          <t>{'OITM.SVolume', 'OITG.ItmsTypCod', 'OITG.ItmsGrpNam'}</t>
         </is>
       </c>
       <c r="U474" t="n">
@@ -38435,7 +38435,7 @@
       </c>
       <c r="P475" t="inlineStr">
         <is>
-          <t>{'OECM', 'ECM1'}</t>
+          <t>{'ECM1', 'OECM'}</t>
         </is>
       </c>
       <c r="Q475" t="inlineStr">
@@ -38450,12 +38450,12 @@
       </c>
       <c r="S475" t="inlineStr">
         <is>
-          <t>{'ECM1.ParamName', 'OECM.Descr', 'ECM1.ParamPrms', 'ECM1.Code', 'OECM.Code'}</t>
+          <t>{'OECM.Descr', 'ECM1.Code', 'ECM1.ParamName', 'OECM.Code', 'ECM1.ParamPrms'}</t>
         </is>
       </c>
       <c r="T475" t="inlineStr">
         <is>
-          <t>{'OPBD.Default', 'OPBD.Descriptio', 'OPBD.Code'}</t>
+          <t>{'OPBD.Descriptio', 'OPBD.Code', 'OPBD.Default'}</t>
         </is>
       </c>
       <c r="U475" t="n">
@@ -38515,12 +38515,12 @@
       </c>
       <c r="P476" t="inlineStr">
         <is>
-          <t>{'ECM4', 'OECM'}</t>
+          <t>{'OECM', 'ECM4'}</t>
         </is>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>{'RLD1', 'XROBJ', 'OMAP', 'OTPA'}</t>
+          <t>{'OMAP', 'OTPA', 'XROBJ', 'RLD1'}</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
@@ -38530,12 +38530,12 @@
       </c>
       <c r="S476" t="inlineStr">
         <is>
-          <t>{'ECM4.Code', 'ECM4.FieldXPath', 'ECM4.ObjXPath', 'OECM.Descr', 'OECM.Code'}</t>
+          <t>{'ECM4.FieldXPath', 'OECM.Descr', 'OECM.Code', 'ECM4.ObjXPath', 'ECM4.Code'}</t>
         </is>
       </c>
       <c r="T476" t="inlineStr">
         <is>
-          <t>{'OTPA.Descr', 'RLD1.TargetType', 'XROBJ.ObjType', 'XROBJ.XmlId', 'OTPA.AbsId', 'RLD1.AbsEntry', 'OMAP.AbsEntry', 'RLD1.TargetFld'}</t>
+          <t>{'XROBJ.ObjType', 'RLD1.TargetType', 'OTPA.AbsId', 'OTPA.Descr', 'OMAP.AbsEntry', 'XROBJ.XmlId', 'RLD1.AbsEntry', 'RLD1.TargetFld'}</t>
         </is>
       </c>
       <c r="U476" t="n">
@@ -38615,7 +38615,7 @@
       </c>
       <c r="T477" t="inlineStr">
         <is>
-          <t>{'OQCN.CategoryId', 'OQFD.CategoryID', 'OQCN.CatName'}</t>
+          <t>{'OQFD.CategoryID', 'OQCN.CatName', 'OQCN.CategoryId'}</t>
         </is>
       </c>
       <c r="U477" t="n">
@@ -38690,12 +38690,12 @@
       </c>
       <c r="S478" t="inlineStr">
         <is>
-          <t>{'OQAG.AUTHGRPCD', 'OQAG.LogInstanc', 'OQAG.AUTHGRPN', 'OQAG.CreateDate', 'OQAG.UpdateDate'}</t>
+          <t>{'OQAG.AUTHGRPCD', 'OQAG.UpdateDate', 'OQAG.AUTHGRPN', 'OQAG.CreateDate', 'OQAG.LogInstanc'}</t>
         </is>
       </c>
       <c r="T478" t="inlineStr">
         <is>
-          <t>{'OUGR.createDate', 'OUGR.logInstanc', 'OUGR.GroupDec', 'OUGR.updateDate', 'OUGR.GroupName'}</t>
+          <t>{'OUGR.GroupName', 'OUGR.GroupDec', 'OUGR.updateDate', 'OUGR.createDate', 'OUGR.logInstanc'}</t>
         </is>
       </c>
       <c r="U478" t="n">
@@ -38775,7 +38775,7 @@
       </c>
       <c r="T479" t="inlineStr">
         <is>
-          <t>{'RDOC.Width', 'RDOC.GridSize'}</t>
+          <t>{'RDOC.GridSize', 'RDOC.Width'}</t>
         </is>
       </c>
       <c r="U479" t="n">
@@ -38845,7 +38845,7 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>{'RDOC.ScreenFont', 'RDOC.EmailFont', 'RDOC.TypeCode'}</t>
+          <t>{'RDOC.ScreenFont', 'RDOC.TypeCode', 'RDOC.EmailFont'}</t>
         </is>
       </c>
       <c r="S480" t="inlineStr">
@@ -38930,12 +38930,12 @@
       </c>
       <c r="S481" t="inlineStr">
         <is>
-          <t>{'RTYP.NAME', 'RTYP.DEFLT_REP', 'RTYP.CODE'}</t>
+          <t>{'RTYP.DEFLT_REP', 'RTYP.NAME', 'RTYP.CODE'}</t>
         </is>
       </c>
       <c r="T481" t="inlineStr">
         <is>
-          <t>{'OEDT.TypeName', 'RDOC.TypeCode', 'OEDT.TypeCode'}</t>
+          <t>{'OEDT.TypeCode', 'RDOC.TypeCode', 'OEDT.TypeName'}</t>
         </is>
       </c>
       <c r="U481" t="n">
@@ -39010,7 +39010,7 @@
       </c>
       <c r="S482" t="inlineStr">
         <is>
-          <t>{'RDOC.TypeCode', 'RITM.DocCode'}</t>
+          <t>{'RITM.DocCode', 'RDOC.TypeCode'}</t>
         </is>
       </c>
       <c r="T482" t="inlineStr">
@@ -39080,7 +39080,7 @@
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>{'OEXT', 'ADP1', 'OREA', 'MDP3'}</t>
+          <t>{'OEXT', 'ADP1', 'MDP3', 'OREA'}</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
@@ -39090,12 +39090,12 @@
       </c>
       <c r="S483" t="inlineStr">
         <is>
-          <t>{'RDOC.NumRepArs', 'RDOC.ExtOnErr', 'RDOC.SwpInEmail'}</t>
+          <t>{'RDOC.ExtOnErr', 'RDOC.NumRepArs', 'RDOC.SwpInEmail'}</t>
         </is>
       </c>
       <c r="T483" t="inlineStr">
         <is>
-          <t>{'MDP3.DprArea', 'OEXT.ExpName', 'MDP3.DocEntry', 'ADP1.EmailOnAdd', 'OREA.Action'}</t>
+          <t>{'OEXT.ExpName', 'MDP3.DocEntry', 'OREA.Action', 'ADP1.EmailOnAdd', 'MDP3.DprArea'}</t>
         </is>
       </c>
       <c r="U483" t="n">
@@ -39165,12 +39165,12 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>{'RITM.BrdrBlue', 'RITM.BrdrRed', 'RITM.BGGreen', 'RITM.FGBlue', 'RITM.BGBlue', 'RITM.Height', 'RITM.FGGreen', 'RITM.FGRed', 'RITM.BGRed', 'RITM.BrdrGreen'}</t>
+          <t>{'RITM.FGGreen', 'RITM.BGRed', 'RITM.BGGreen', 'RITM.FGBlue', 'RITM.Height', 'RITM.BGBlue', 'RITM.FGRed', 'RITM.BrdrRed', 'RITM.BrdrGreen', 'RITM.BrdrBlue'}</t>
         </is>
       </c>
       <c r="S484" t="inlineStr">
         <is>
-          <t>{'RITM.MrkrBlue', 'RITM.MrkrRed', 'RITM.MrkrGreen'}</t>
+          <t>{'RITM.MrkrBlue', 'RITM.MrkrGreen', 'RITM.MrkrRed'}</t>
         </is>
       </c>
       <c r="T484" t="inlineStr">
@@ -39245,7 +39245,7 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>{'OOPR.MaxSumLoc', 'OOPR.CardGroup'}</t>
+          <t>{'OOPR.CardGroup', 'OOPR.MaxSumLoc'}</t>
         </is>
       </c>
       <c r="S485" t="inlineStr">
@@ -39255,7 +39255,7 @@
       </c>
       <c r="T485" t="inlineStr">
         <is>
-          <t>{'OCRG.GroupName', 'OCRG.GroupCode'}</t>
+          <t>{'OCRG.GroupCode', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="U485" t="n">
@@ -39325,7 +39325,7 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>{'OOPR.SumProfL', 'OOPR.PrcnProf', 'OOPR.Status', 'OOPR.SumProfS'}</t>
+          <t>{'OOPR.Status', 'OOPR.PrcnProf', 'OOPR.SumProfS', 'OOPR.SumProfL'}</t>
         </is>
       </c>
       <c r="S486" t="inlineStr">
@@ -39405,7 +39405,7 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>{'OPR1.OpprId', 'OPR1.ClosePrcnt'}</t>
+          <t>{'OPR1.ClosePrcnt', 'OPR1.OpprId'}</t>
         </is>
       </c>
       <c r="S487" t="inlineStr">
@@ -39490,7 +39490,7 @@
       </c>
       <c r="S488" t="inlineStr">
         <is>
-          <t>{'OPR1.CloseDate', 'OPR1.WtSumSys', 'OPR1.WtSumLoc'}</t>
+          <t>{'OPR1.WtSumLoc', 'OPR1.CloseDate', 'OPR1.WtSumSys'}</t>
         </is>
       </c>
       <c r="T488" t="inlineStr">
@@ -39560,7 +39560,7 @@
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>{'OEDG', 'OOCR', 'OLTB'}</t>
+          <t>{'OEDG', 'OLTB', 'OOCR'}</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
@@ -39570,12 +39570,12 @@
       </c>
       <c r="S489" t="inlineStr">
         <is>
-          <t>{'OPRC.Balance', 'OPRC.ValidFrom', 'OPRC.PrcName', 'OPRC.PrcCode', 'OPRC.Active', 'OPRC.DataSource'}</t>
+          <t>{'OPRC.Balance', 'OPRC.DataSource', 'OPRC.PrcCode', 'OPRC.PrcName', 'OPRC.Active', 'OPRC.ValidFrom'}</t>
         </is>
       </c>
       <c r="T489" t="inlineStr">
         <is>
-          <t>{'OEDG.ValidTo', 'OOCR.Active', 'OOCR.AbsEntry', 'OLTB.AbsId', 'OOCR.OcrCode', 'OEDG.ValidForm', 'OLTB.Balance', 'OEDG.ObjCode', 'OOCR.DimCode', 'OOCR.OcrName'}</t>
+          <t>{'OEDG.ValidTo', 'OEDG.ValidForm', 'OOCR.Active', 'OOCR.OcrCode', 'OLTB.Balance', 'OEDG.ObjCode', 'OOCR.AbsEntry', 'OOCR.OcrName', 'OOCR.DimCode', 'OLTB.AbsId'}</t>
         </is>
       </c>
       <c r="U489" t="n">
@@ -39645,7 +39645,7 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>{'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.RealSumSys', 'OOPR.CloPrcnt', 'OOPR.RealProfS'}</t>
+          <t>{'OOPR.RealProfS', 'OOPR.CloPrcnt', 'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.RealSumSys'}</t>
         </is>
       </c>
       <c r="S490" t="inlineStr">
@@ -39655,7 +39655,7 @@
       </c>
       <c r="T490" t="inlineStr">
         <is>
-          <t>{'OCRD.CardCode', 'OCRD.CardName', 'OOPR.CardCode'}</t>
+          <t>{'OCRD.CardCode', 'OOPR.CardCode', 'OCRD.CardName'}</t>
         </is>
       </c>
       <c r="U490" t="n">
@@ -39730,7 +39730,7 @@
       </c>
       <c r="S491" t="inlineStr">
         <is>
-          <t>{'OPR1.CloseDate', 'OPR1.OpenDate', 'OPR1.ClosePrcnt'}</t>
+          <t>{'OPR1.ClosePrcnt', 'OPR1.OpenDate', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="T491" t="inlineStr">
@@ -39805,7 +39805,7 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>{'OOPR.Status', 'OOPR.OpenDate'}</t>
+          <t>{'OOPR.OpenDate', 'OOPR.Status'}</t>
         </is>
       </c>
       <c r="S492" t="inlineStr">
@@ -40030,7 +40030,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>{'OCTR', 'CTR1'}</t>
+          <t>{'CTR1', 'OCTR'}</t>
         </is>
       </c>
       <c r="P495" t="inlineStr">
@@ -40135,7 +40135,7 @@
       </c>
       <c r="T496" t="inlineStr">
         <is>
-          <t>{'ACTR.ContractID', 'ACTR.Renewal', 'ACTR.CstmrName'}</t>
+          <t>{'ACTR.ContractID', 'ACTR.CstmrName', 'ACTR.Renewal'}</t>
         </is>
       </c>
       <c r="U496" t="n">
@@ -40365,7 +40365,7 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>{'OQUE.email', 'OQUE.descript', 'OQUE.manager'}</t>
+          <t>{'OQUE.descript', 'OQUE.email', 'OQUE.manager'}</t>
         </is>
       </c>
       <c r="S499" t="inlineStr">
@@ -40445,7 +40445,7 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>{'OSCL.priority', 'OSCL.customer', 'OSCL.custmrName'}</t>
+          <t>{'OSCL.priority', 'OSCL.custmrName', 'OSCL.customer'}</t>
         </is>
       </c>
       <c r="S500" t="inlineStr">
@@ -40530,7 +40530,7 @@
       </c>
       <c r="S501" t="inlineStr">
         <is>
-          <t>{'OSCL.AssignDate', 'OSCL.respOnDate', 'OSCL.resolOnDat', 'OSCO.originID', 'OSCO.Name', 'OSCL.origin'}</t>
+          <t>{'OSCL.resolOnDat', 'OSCO.Name', 'OSCL.origin', 'OSCO.originID', 'OSCL.respOnDate', 'OSCL.AssignDate'}</t>
         </is>
       </c>
       <c r="T501" t="inlineStr">
@@ -40600,7 +40600,7 @@
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>{'OCRD', 'CRD1'}</t>
+          <t>{'CRD1', 'OCRD'}</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
@@ -40610,12 +40610,12 @@
       </c>
       <c r="S502" t="inlineStr">
         <is>
-          <t>{'OSCL.custmrName', 'OSCL.BPShipAddr', 'OSCL.BPBillAddr', 'OSCL.BPE_Mail'}</t>
+          <t>{'OSCL.BPBillAddr', 'OSCL.BPShipAddr', 'OSCL.custmrName', 'OSCL.BPE_Mail'}</t>
         </is>
       </c>
       <c r="T502" t="inlineStr">
         <is>
-          <t>{'OCRD.E_Mail', 'CRD1.City', 'CRD1.Country', 'OCRD.BillToDef', 'CRD1.Address', 'OCRD.CardName', 'OCRD.ShipToDef', 'CRD1.Block', 'CRD1.Street', 'CRD1.ZipCode', 'OCRD.CardCode'}</t>
+          <t>{'CRD1.Block', 'OCRD.BillToDef', 'OCRD.CardCode', 'CRD1.ZipCode', 'CRD1.City', 'CRD1.Address', 'CRD1.Street', 'OCRD.ShipToDef', 'OCRD.CardName', 'CRD1.Country', 'OCRD.E_Mail'}</t>
         </is>
       </c>
       <c r="U502" t="n">
@@ -40680,7 +40680,7 @@
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>{'OCRD', 'ACTR'}</t>
+          <t>{'ACTR', 'OCRD'}</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40690,12 +40690,12 @@
       </c>
       <c r="S503" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrCode', 'OCTR.CstmrName', 'OSCL.customer'}</t>
+          <t>{'OCTR.CstmrName', 'OSCL.customer', 'OCTR.CstmrCode'}</t>
         </is>
       </c>
       <c r="T503" t="inlineStr">
         <is>
-          <t>{'ACTR.CstmrCode', 'ACTR.CntrcTmplt', 'OSCL.contractID', 'OCRD.CardName', 'ACTR.ContractID', 'OCRD.CardCode'}</t>
+          <t>{'OCRD.CardCode', 'ACTR.ContractID', 'ACTR.CntrcTmplt', 'OCRD.CardName', 'ACTR.CstmrCode', 'OSCL.contractID'}</t>
         </is>
       </c>
       <c r="U503" t="n">
@@ -40760,7 +40760,7 @@
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>{'CTR1', 'ODRF'}</t>
+          <t>{'ODRF', 'CTR1'}</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
@@ -40770,12 +40770,12 @@
       </c>
       <c r="S504" t="inlineStr">
         <is>
-          <t>{'OINS.custmrName', 'OINS.itemCode', 'OINS.internalSN'}</t>
+          <t>{'OINS.internalSN', 'OINS.custmrName', 'OINS.itemCode'}</t>
         </is>
       </c>
       <c r="T504" t="inlineStr">
         <is>
-          <t>{'ODRF.DocEntry', 'CTR1.ItemCode', 'ODRF.CardName', 'CTR1.ContractID', 'CTR1.InternalSN'}</t>
+          <t>{'CTR1.ItemCode', 'CTR1.ContractID', 'CTR1.InternalSN', 'ODRF.CardName', 'ODRF.DocEntry'}</t>
         </is>
       </c>
       <c r="U504" t="n">
